--- a/April'21/Daily Sales Info ..xlsx
+++ b/April'21/Daily Sales Info ..xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="20055" windowHeight="7695" tabRatio="784" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="54">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -198,6 +198,15 @@
   </si>
   <si>
     <t>Month:April</t>
+  </si>
+  <si>
+    <t>Date:03.04.2021</t>
+  </si>
+  <si>
+    <t>Date:02.04.2021</t>
+  </si>
+  <si>
+    <t>Rakib</t>
   </si>
 </sst>
 </file>
@@ -12966,9 +12975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R23" sqref="R23"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14727,15 +14736,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
@@ -14743,19 +14752,19 @@
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
@@ -15905,15 +15914,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -15921,19 +15930,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -16277,15 +16286,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
@@ -16293,19 +16302,19 @@
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
@@ -17455,15 +17464,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -17471,19 +17480,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -17827,15 +17836,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
@@ -17843,19 +17852,19 @@
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
@@ -19005,15 +19014,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -19021,19 +19030,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -19377,15 +19386,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
@@ -19393,19 +19402,19 @@
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
@@ -20555,15 +20564,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -20571,19 +20580,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -20927,15 +20936,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
@@ -20943,19 +20952,19 @@
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
@@ -22105,15 +22114,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -22121,19 +22130,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -22477,15 +22486,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
@@ -22493,19 +22502,19 @@
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
@@ -23655,15 +23664,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -23671,19 +23680,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -24027,15 +24036,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
@@ -24043,19 +24052,19 @@
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
@@ -25205,15 +25214,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -25221,19 +25230,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -25577,15 +25586,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
@@ -25593,19 +25602,19 @@
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
@@ -26755,15 +26764,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -26771,19 +26780,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -27127,15 +27136,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
@@ -27143,19 +27152,19 @@
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
@@ -28305,15 +28314,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -28321,19 +28330,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -28677,15 +28686,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
@@ -28693,19 +28702,19 @@
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
@@ -29855,15 +29864,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -29871,19 +29880,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -30133,8 +30142,8 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="6" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30197,7 +30206,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
@@ -31777,15 +31786,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
@@ -31793,19 +31802,19 @@
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
@@ -32955,15 +32964,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -32971,19 +32980,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -33327,15 +33336,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
@@ -33343,19 +33352,19 @@
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
@@ -34505,15 +34514,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -34521,19 +34530,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -34877,15 +34886,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
@@ -34893,19 +34902,19 @@
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
@@ -36055,15 +36064,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -36071,19 +36080,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -36427,15 +36436,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
@@ -36443,19 +36452,19 @@
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
@@ -37605,15 +37614,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -37621,19 +37630,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -37977,15 +37986,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
@@ -37993,19 +38002,19 @@
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
@@ -39155,15 +39164,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -39171,19 +39180,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -39527,15 +39536,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
@@ -39543,19 +39552,19 @@
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
@@ -40705,15 +40714,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -40721,19 +40730,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -41077,15 +41086,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
@@ -41093,19 +41102,19 @@
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
@@ -42255,15 +42264,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -42271,19 +42280,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -42627,15 +42636,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
@@ -42643,19 +42652,19 @@
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
@@ -43805,15 +43814,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -43821,19 +43830,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -44177,15 +44186,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
@@ -44193,19 +44202,19 @@
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
@@ -45355,15 +45364,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -45371,19 +45380,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -45727,15 +45736,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
@@ -45743,19 +45752,19 @@
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
@@ -46905,15 +46914,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -46921,19 +46930,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -47182,9 +47191,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D4" sqref="D4:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47247,7 +47256,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
@@ -47416,40 +47425,46 @@
       <c r="C7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21">
+        <v>15528</v>
+      </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22">
+        <v>80</v>
+      </c>
       <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>0</v>
+        <v>16248</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>0</v>
+        <v>16248</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>0</v>
+        <v>446.82</v>
       </c>
       <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
+      <c r="Q7" s="26">
+        <v>102</v>
+      </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>0</v>
+        <v>15699.18</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>0</v>
+        <v>154.35599999999999</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>0</v>
+        <v>52.355999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47462,40 +47477,46 @@
       <c r="C8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29">
+        <v>7199</v>
+      </c>
       <c r="E8" s="30"/>
       <c r="F8" s="30"/>
       <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="30">
+        <v>160</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>0</v>
+        <v>8639</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>0</v>
+        <v>8639</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>0</v>
+        <v>237.57249999999999</v>
       </c>
       <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="26">
+        <v>81</v>
+      </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>0</v>
+        <v>8320.4274999999998</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>0</v>
+        <v>82.070499999999996</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>0</v>
+        <v>1.0704999999999956</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47508,40 +47529,50 @@
       <c r="C9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
+      <c r="D9" s="29">
+        <v>14076</v>
+      </c>
+      <c r="E9" s="30">
+        <v>20</v>
+      </c>
+      <c r="F9" s="30">
+        <v>20</v>
+      </c>
       <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="30">
+        <v>250</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16926</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16926</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>465.46499999999997</v>
       </c>
       <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
+      <c r="Q9" s="26">
+        <v>140</v>
+      </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16320.535</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>160.797</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>20.796999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47554,40 +47585,48 @@
       <c r="C10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="29"/>
+      <c r="D10" s="29">
+        <v>6222</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="20"/>
+      <c r="H10" s="30">
+        <v>100</v>
+      </c>
+      <c r="I10" s="20">
+        <v>12</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7122</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9414</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>195.85499999999999</v>
       </c>
       <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
+      <c r="Q10" s="26">
+        <v>28</v>
+      </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9190.1450000000004</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67.658999999999992</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>39.658999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47600,40 +47639,48 @@
       <c r="C11" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29">
+        <v>5856</v>
+      </c>
       <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="30">
+        <v>100</v>
+      </c>
       <c r="G11" s="32"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="30">
+        <v>130</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8026</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8026</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>220.715</v>
       </c>
       <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
+      <c r="Q11" s="26">
+        <v>45</v>
+      </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7760.2849999999999</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>76.247</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>31.247</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47646,40 +47693,46 @@
       <c r="C12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="29"/>
+      <c r="D12" s="29">
+        <v>6431</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20">
+        <v>10</v>
+      </c>
       <c r="L12" s="20"/>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6431</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8251</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>176.85249999999999</v>
       </c>
       <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="Q12" s="26">
+        <v>34</v>
+      </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>8040.1475</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>61.094499999999996</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>27.094499999999996</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47692,7 +47745,9 @@
       <c r="C13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
+      <c r="D13" s="29">
+        <v>6850</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="30"/>
       <c r="G13" s="30"/>
@@ -47703,29 +47758,31 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6850</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>188.375</v>
       </c>
       <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
+      <c r="Q13" s="26">
+        <v>55</v>
+      </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6606.625</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>65.075000000000003</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.075000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47738,40 +47795,50 @@
       <c r="C14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="29"/>
+      <c r="D14" s="29">
+        <v>11113</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="30"/>
       <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="H14" s="30">
+        <v>60</v>
+      </c>
+      <c r="I14" s="20">
+        <v>3</v>
+      </c>
+      <c r="J14" s="20">
+        <v>5</v>
+      </c>
       <c r="K14" s="20"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11653</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13181</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>320.45749999999998</v>
       </c>
       <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
+      <c r="Q14" s="26">
+        <v>131</v>
+      </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12729.5425</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>110.70349999999999</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-20.296500000000009</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47784,9 +47851,15 @@
       <c r="C15" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
+      <c r="D15" s="29">
+        <v>19781</v>
+      </c>
+      <c r="E15" s="30">
+        <v>40</v>
+      </c>
+      <c r="F15" s="30">
+        <v>70</v>
+      </c>
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="20"/>
@@ -47795,29 +47868,31 @@
       <c r="L15" s="20"/>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21281</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>21281</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>585.22749999999996</v>
       </c>
       <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="26">
+        <v>170</v>
+      </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>20525.772499999999</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>202.1695</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>32.169499999999999</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47830,40 +47905,50 @@
       <c r="C16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="29"/>
+      <c r="D16" s="29">
+        <v>15535</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
+      <c r="H16" s="30">
+        <v>100</v>
+      </c>
+      <c r="I16" s="20">
+        <v>25</v>
+      </c>
       <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="K16" s="20">
+        <v>5</v>
+      </c>
       <c r="L16" s="20"/>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>16435</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22120</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>451.96249999999998</v>
       </c>
       <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
+      <c r="Q16" s="26">
+        <v>118</v>
+      </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>21550.037499999999</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>156.13249999999999</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>38.132499999999993</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47876,40 +47961,54 @@
       <c r="C17" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="29">
+        <v>9795</v>
+      </c>
+      <c r="E17" s="30">
+        <v>20</v>
+      </c>
+      <c r="F17" s="30">
+        <v>50</v>
+      </c>
       <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="20"/>
+      <c r="H17" s="30">
+        <v>50</v>
+      </c>
+      <c r="I17" s="20">
+        <v>25</v>
+      </c>
       <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
+      <c r="K17" s="20">
+        <v>10</v>
+      </c>
       <c r="L17" s="20"/>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11145</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17740</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>306.48750000000001</v>
       </c>
       <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
+      <c r="Q17" s="26">
+        <v>100</v>
+      </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17333.512500000001</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>105.8775</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5.8774999999999977</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47920,42 +48019,54 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
+        <v>53</v>
+      </c>
+      <c r="D18" s="29">
+        <v>13265</v>
+      </c>
+      <c r="E18" s="30">
+        <v>10</v>
+      </c>
+      <c r="F18" s="30">
+        <v>30</v>
+      </c>
       <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="20"/>
+      <c r="H18" s="30">
+        <v>50</v>
+      </c>
+      <c r="I18" s="20">
+        <v>10</v>
+      </c>
       <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="K18" s="20">
+        <v>10</v>
+      </c>
       <c r="L18" s="20"/>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14215</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17945</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>390.91250000000002</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26"/>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17554.087500000001</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>135.04249999999999</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>135.04249999999999</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -47968,40 +48079,52 @@
       <c r="C19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="29">
+        <v>13018</v>
+      </c>
+      <c r="E19" s="30">
+        <v>30</v>
+      </c>
       <c r="F19" s="30"/>
       <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="H19" s="30">
+        <v>60</v>
+      </c>
+      <c r="I19" s="20">
+        <v>10</v>
+      </c>
+      <c r="J19" s="20">
+        <v>5</v>
+      </c>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14158</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17023</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>389.34500000000003</v>
       </c>
       <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
+      <c r="Q19" s="26">
+        <v>170</v>
+      </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>16463.654999999999</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>134.501</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-35.498999999999995</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48012,9 +48135,11 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="29"/>
+        <v>49</v>
+      </c>
+      <c r="D20" s="29">
+        <v>309</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
@@ -48025,29 +48150,29 @@
       <c r="L20" s="20"/>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8.4975000000000005</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26"/>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>300.5025</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.9354999999999998</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.9354999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48060,7 +48185,9 @@
       <c r="C21" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="29"/>
+      <c r="D21" s="29">
+        <v>7505</v>
+      </c>
       <c r="E21" s="30"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
@@ -48071,29 +48198,31 @@
       <c r="L21" s="20"/>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>206.38749999999999</v>
       </c>
       <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
+      <c r="Q21" s="26">
+        <v>98</v>
+      </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7200.6125000000002</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>71.297499999999999</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-26.702500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48106,40 +48235,50 @@
       <c r="C22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="D22" s="29">
+        <v>11810</v>
+      </c>
+      <c r="E22" s="30">
+        <v>110</v>
+      </c>
+      <c r="F22" s="30">
+        <v>60</v>
+      </c>
       <c r="G22" s="20"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="20">
+        <v>30</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14610</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20340</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>401.77499999999998</v>
       </c>
       <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
+      <c r="Q22" s="26">
+        <v>100</v>
+      </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>19838.224999999999</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>138.79499999999999</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>38.794999999999987</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48152,7 +48291,9 @@
       <c r="C23" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="35"/>
+      <c r="D23" s="35">
+        <v>7032</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
@@ -48163,29 +48304,31 @@
       <c r="L23" s="20"/>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7032</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7032</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>193.38</v>
       </c>
       <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
+      <c r="Q23" s="26">
+        <v>70</v>
+      </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6768.62</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>66.804000000000002</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-3.195999999999998</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48198,40 +48341,52 @@
       <c r="C24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
+      <c r="D24" s="29">
+        <v>11119</v>
+      </c>
+      <c r="E24" s="30">
+        <v>60</v>
+      </c>
+      <c r="F24" s="30">
+        <v>50</v>
+      </c>
       <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="20"/>
+      <c r="H24" s="30">
+        <v>60</v>
+      </c>
+      <c r="I24" s="20">
+        <v>4</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13359</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14123</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>367.3725</v>
       </c>
       <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
+      <c r="Q24" s="26">
+        <v>101</v>
+      </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13654.627500000001</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>126.9105</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>25.910499999999999</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48244,7 +48399,9 @@
       <c r="C25" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29">
+        <v>9358</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
@@ -48255,29 +48412,31 @@
       <c r="L25" s="20"/>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9358</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9358</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>257.34500000000003</v>
       </c>
       <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="26">
+        <v>80</v>
+      </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9020.6550000000007</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>88.900999999999996</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8.9009999999999962</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -48290,40 +48449,50 @@
       <c r="C26" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="29"/>
+      <c r="D26" s="29">
+        <v>3653</v>
+      </c>
       <c r="E26" s="29"/>
       <c r="F26" s="30"/>
       <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="H26" s="30">
+        <v>60</v>
+      </c>
+      <c r="I26" s="20">
+        <v>28</v>
+      </c>
+      <c r="J26" s="20">
+        <v>2</v>
+      </c>
       <c r="K26" s="20"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4193</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9923</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>115.3075</v>
       </c>
       <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="26">
+        <v>52</v>
+      </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9755.692500000001</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>39.833500000000001</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-12.166499999999999</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -48336,7 +48505,9 @@
       <c r="C27" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="D27" s="37"/>
+      <c r="D27" s="37">
+        <v>14304</v>
+      </c>
       <c r="E27" s="38"/>
       <c r="F27" s="39"/>
       <c r="G27" s="39"/>
@@ -48347,29 +48518,31 @@
       <c r="L27" s="31"/>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14304</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14304</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>393.36</v>
       </c>
       <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
+      <c r="Q27" s="41">
+        <v>100</v>
+      </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13810.64</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>135.88800000000001</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>35.888000000000005</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -48380,15 +48553,15 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>0</v>
+        <v>209759</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -48396,19 +48569,19 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -48416,15 +48589,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>229799</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>266538</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6319.4724999999999</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -48432,19 +48605,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>258443.52750000003</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2183.0905000000002</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>408.09049999999991</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -48455,15 +48628,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -48471,19 +48644,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -48827,15 +49000,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
@@ -48843,19 +49016,19 @@
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
@@ -50005,15 +50178,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -50021,19 +50194,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -50377,15 +50550,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
@@ -50393,19 +50566,19 @@
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
@@ -51555,15 +51728,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -51571,19 +51744,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -51832,8 +52005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52094,7 +52267,7 @@
       </c>
       <c r="D7" s="21">
         <f>'1'!D7+'2'!D7+'3'!D7+'4'!D7+'5'!D7+'6'!D7+'7'!D7+'8'!D7+'9'!D7+'10'!D7+'11'!D7+'12'!D7+'13'!D7+'14'!D7+'15'!D7+'16'!D7+'17'!D7+'18'!D7+'19'!D7+'20'!D7+'21'!D7+'22'!D7+'23'!D7+'24'!D7+'25'!D7+'26'!D7+'27'!D7+'28'!D7+'29'!D7+'30'!D7+'31'!D7</f>
-        <v>10075</v>
+        <v>25603</v>
       </c>
       <c r="E7" s="21">
         <f>'1'!E7+'2'!E7+'3'!E7+'4'!E7+'5'!E7+'6'!E7+'7'!E7+'8'!E7+'9'!E7+'10'!E7+'11'!E7+'12'!E7+'13'!E7+'14'!E7+'15'!E7+'16'!E7+'17'!E7+'18'!E7+'19'!E7+'20'!E7+'21'!E7+'22'!E7+'23'!E7+'24'!E7+'25'!E7+'26'!E7+'27'!E7+'28'!E7+'29'!E7+'30'!E7+'31'!E7</f>
@@ -52110,7 +52283,7 @@
       </c>
       <c r="H7" s="21">
         <f>'1'!H7+'2'!H7+'3'!H7+'4'!H7+'5'!H7+'6'!H7+'7'!H7+'8'!H7+'9'!H7+'10'!H7+'11'!H7+'12'!H7+'13'!H7+'14'!H7+'15'!H7+'16'!H7+'17'!H7+'18'!H7+'19'!H7+'20'!H7+'21'!H7+'22'!H7+'23'!H7+'24'!H7+'25'!H7+'26'!H7+'27'!H7+'28'!H7+'29'!H7+'30'!H7+'31'!H7</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I7" s="21">
         <f>'1'!I7+'2'!I7+'3'!I7+'4'!I7+'5'!I7+'6'!I7+'7'!I7+'8'!I7+'9'!I7+'10'!I7+'11'!I7+'12'!I7+'13'!I7+'14'!I7+'15'!I7+'16'!I7+'17'!I7+'18'!I7+'19'!I7+'20'!I7+'21'!I7+'22'!I7+'23'!I7+'24'!I7+'25'!I7+'26'!I7+'27'!I7+'28'!I7+'29'!I7+'30'!I7+'31'!I7</f>
@@ -52130,32 +52303,32 @@
       </c>
       <c r="M7" s="20">
         <f>D7+E7*20+F7*10+G7*9+H7*9</f>
-        <v>10075</v>
+        <v>26323</v>
       </c>
       <c r="N7" s="24">
         <f>D7+E7*20+F7*10+G7*9+H7*9+I7*191+J7*191+K7*182+L7*100</f>
-        <v>10075</v>
+        <v>26323</v>
       </c>
       <c r="O7" s="25">
         <f>M7*2.75%</f>
-        <v>277.0625</v>
+        <v>723.88250000000005</v>
       </c>
       <c r="P7" s="26"/>
       <c r="Q7" s="26">
         <f>'1'!Q7+'2'!Q7+'3'!Q7+'4'!Q7+'5'!Q7+'6'!Q7+'7'!Q7+'8'!Q7+'9'!Q7+'10'!Q7+'11'!Q7+'12'!Q7+'13'!Q7+'14'!Q7+'15'!Q7+'16'!Q7+'17'!Q7+'18'!Q7+'19'!Q7+'20'!Q7+'21'!Q7+'22'!Q7+'23'!Q7+'24'!Q7+'25'!Q7+'26'!Q7+'27'!Q7+'28'!Q7+'29'!Q7+'30'!Q7+'31'!Q7</f>
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="R7" s="24">
         <f>M7-(M7*2.75%)+I7*191+J7*191+K7*182+L7*100-Q7</f>
-        <v>9719.9375</v>
+        <v>25419.1175</v>
       </c>
       <c r="S7" s="25">
         <f>M7*0.95%</f>
-        <v>95.712499999999991</v>
+        <v>250.0685</v>
       </c>
       <c r="T7" s="27">
         <f>S7-Q7</f>
-        <v>17.712499999999991</v>
+        <v>70.0685</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52170,7 +52343,7 @@
       </c>
       <c r="D8" s="21">
         <f>'1'!D8+'2'!D8+'3'!D8+'4'!D8+'5'!D8+'6'!D8+'7'!D8+'8'!D8+'9'!D8+'10'!D8+'11'!D8+'12'!D8+'13'!D8+'14'!D8+'15'!D8+'16'!D8+'17'!D8+'18'!D8+'19'!D8+'20'!D8+'21'!D8+'22'!D8+'23'!D8+'24'!D8+'25'!D8+'26'!D8+'27'!D8+'28'!D8+'29'!D8+'30'!D8+'31'!D8</f>
-        <v>3600</v>
+        <v>10799</v>
       </c>
       <c r="E8" s="21">
         <f>'1'!E8+'2'!E8+'3'!E8+'4'!E8+'5'!E8+'6'!E8+'7'!E8+'8'!E8+'9'!E8+'10'!E8+'11'!E8+'12'!E8+'13'!E8+'14'!E8+'15'!E8+'16'!E8+'17'!E8+'18'!E8+'19'!E8+'20'!E8+'21'!E8+'22'!E8+'23'!E8+'24'!E8+'25'!E8+'26'!E8+'27'!E8+'28'!E8+'29'!E8+'30'!E8+'31'!E8</f>
@@ -52186,7 +52359,7 @@
       </c>
       <c r="H8" s="21">
         <f>'1'!H8+'2'!H8+'3'!H8+'4'!H8+'5'!H8+'6'!H8+'7'!H8+'8'!H8+'9'!H8+'10'!H8+'11'!H8+'12'!H8+'13'!H8+'14'!H8+'15'!H8+'16'!H8+'17'!H8+'18'!H8+'19'!H8+'20'!H8+'21'!H8+'22'!H8+'23'!H8+'24'!H8+'25'!H8+'26'!H8+'27'!H8+'28'!H8+'29'!H8+'30'!H8+'31'!H8</f>
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="I8" s="21">
         <f>'1'!I8+'2'!I8+'3'!I8+'4'!I8+'5'!I8+'6'!I8+'7'!I8+'8'!I8+'9'!I8+'10'!I8+'11'!I8+'12'!I8+'13'!I8+'14'!I8+'15'!I8+'16'!I8+'17'!I8+'18'!I8+'19'!I8+'20'!I8+'21'!I8+'22'!I8+'23'!I8+'24'!I8+'25'!I8+'26'!I8+'27'!I8+'28'!I8+'29'!I8+'30'!I8+'31'!I8</f>
@@ -52206,32 +52379,32 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" ref="M8:M27" si="0">D8+E8*20+F8*10+G8*9+H8*9</f>
-        <v>3600</v>
+        <v>12239</v>
       </c>
       <c r="N8" s="24">
         <f t="shared" ref="N8:N27" si="1">D8+E8*20+F8*10+G8*9+H8*9+I8*191+J8*191+K8*182+L8*100</f>
-        <v>4555</v>
+        <v>13194</v>
       </c>
       <c r="O8" s="25">
         <f t="shared" ref="O8:O27" si="2">M8*2.75%</f>
-        <v>99</v>
+        <v>336.57249999999999</v>
       </c>
       <c r="P8" s="26"/>
       <c r="Q8" s="26">
         <f>'1'!Q8+'2'!Q8+'3'!Q8+'4'!Q8+'5'!Q8+'6'!Q8+'7'!Q8+'8'!Q8+'9'!Q8+'10'!Q8+'11'!Q8+'12'!Q8+'13'!Q8+'14'!Q8+'15'!Q8+'16'!Q8+'17'!Q8+'18'!Q8+'19'!Q8+'20'!Q8+'21'!Q8+'22'!Q8+'23'!Q8+'24'!Q8+'25'!Q8+'26'!Q8+'27'!Q8+'28'!Q8+'29'!Q8+'30'!Q8+'31'!Q8</f>
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="R8" s="24">
         <f t="shared" ref="R8:R27" si="3">M8-(M8*2.75%)+I8*191+J8*191+K8*182+L8*100-Q8</f>
-        <v>4415</v>
+        <v>12735.4275</v>
       </c>
       <c r="S8" s="25">
         <f t="shared" ref="S8:S27" si="4">M8*0.95%</f>
-        <v>34.199999999999996</v>
+        <v>116.2705</v>
       </c>
       <c r="T8" s="27">
         <f t="shared" ref="T8:T27" si="5">S8-Q8</f>
-        <v>-6.8000000000000043</v>
+        <v>-5.7295000000000016</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52246,15 +52419,15 @@
       </c>
       <c r="D9" s="21">
         <f>'1'!D9+'2'!D9+'3'!D9+'4'!D9+'5'!D9+'6'!D9+'7'!D9+'8'!D9+'9'!D9+'10'!D9+'11'!D9+'12'!D9+'13'!D9+'14'!D9+'15'!D9+'16'!D9+'17'!D9+'18'!D9+'19'!D9+'20'!D9+'21'!D9+'22'!D9+'23'!D9+'24'!D9+'25'!D9+'26'!D9+'27'!D9+'28'!D9+'29'!D9+'30'!D9+'31'!D9</f>
-        <v>12962</v>
+        <v>27038</v>
       </c>
       <c r="E9" s="21">
         <f>'1'!E9+'2'!E9+'3'!E9+'4'!E9+'5'!E9+'6'!E9+'7'!E9+'8'!E9+'9'!E9+'10'!E9+'11'!E9+'12'!E9+'13'!E9+'14'!E9+'15'!E9+'16'!E9+'17'!E9+'18'!E9+'19'!E9+'20'!E9+'21'!E9+'22'!E9+'23'!E9+'24'!E9+'25'!E9+'26'!E9+'27'!E9+'28'!E9+'29'!E9+'30'!E9+'31'!E9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F9" s="21">
         <f>'1'!F9+'2'!F9+'3'!F9+'4'!F9+'5'!F9+'6'!F9+'7'!F9+'8'!F9+'9'!F9+'10'!F9+'11'!F9+'12'!F9+'13'!F9+'14'!F9+'15'!F9+'16'!F9+'17'!F9+'18'!F9+'19'!F9+'20'!F9+'21'!F9+'22'!F9+'23'!F9+'24'!F9+'25'!F9+'26'!F9+'27'!F9+'28'!F9+'29'!F9+'30'!F9+'31'!F9</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="21">
         <f>'1'!G9+'2'!G9+'3'!G9+'4'!G9+'5'!G9+'6'!G9+'7'!G9+'8'!G9+'9'!G9+'10'!G9+'11'!G9+'12'!G9+'13'!G9+'14'!G9+'15'!G9+'16'!G9+'17'!G9+'18'!G9+'19'!G9+'20'!G9+'21'!G9+'22'!G9+'23'!G9+'24'!G9+'25'!G9+'26'!G9+'27'!G9+'28'!G9+'29'!G9+'30'!G9+'31'!G9</f>
@@ -52262,7 +52435,7 @@
       </c>
       <c r="H9" s="21">
         <f>'1'!H9+'2'!H9+'3'!H9+'4'!H9+'5'!H9+'6'!H9+'7'!H9+'8'!H9+'9'!H9+'10'!H9+'11'!H9+'12'!H9+'13'!H9+'14'!H9+'15'!H9+'16'!H9+'17'!H9+'18'!H9+'19'!H9+'20'!H9+'21'!H9+'22'!H9+'23'!H9+'24'!H9+'25'!H9+'26'!H9+'27'!H9+'28'!H9+'29'!H9+'30'!H9+'31'!H9</f>
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I9" s="21">
         <f>'1'!I9+'2'!I9+'3'!I9+'4'!I9+'5'!I9+'6'!I9+'7'!I9+'8'!I9+'9'!I9+'10'!I9+'11'!I9+'12'!I9+'13'!I9+'14'!I9+'15'!I9+'16'!I9+'17'!I9+'18'!I9+'19'!I9+'20'!I9+'21'!I9+'22'!I9+'23'!I9+'24'!I9+'25'!I9+'26'!I9+'27'!I9+'28'!I9+'29'!I9+'30'!I9+'31'!I9</f>
@@ -52282,32 +52455,32 @@
       </c>
       <c r="M9" s="20">
         <f t="shared" si="0"/>
-        <v>12962</v>
+        <v>29888</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="1"/>
-        <v>13153</v>
+        <v>30079</v>
       </c>
       <c r="O9" s="25">
         <f t="shared" si="2"/>
-        <v>356.45499999999998</v>
+        <v>821.92</v>
       </c>
       <c r="P9" s="26"/>
       <c r="Q9" s="26">
         <f>'1'!Q9+'2'!Q9+'3'!Q9+'4'!Q9+'5'!Q9+'6'!Q9+'7'!Q9+'8'!Q9+'9'!Q9+'10'!Q9+'11'!Q9+'12'!Q9+'13'!Q9+'14'!Q9+'15'!Q9+'16'!Q9+'17'!Q9+'18'!Q9+'19'!Q9+'20'!Q9+'21'!Q9+'22'!Q9+'23'!Q9+'24'!Q9+'25'!Q9+'26'!Q9+'27'!Q9+'28'!Q9+'29'!Q9+'30'!Q9+'31'!Q9</f>
-        <v>127</v>
+        <v>267</v>
       </c>
       <c r="R9" s="24">
         <f t="shared" si="3"/>
-        <v>12669.545</v>
+        <v>28990.080000000002</v>
       </c>
       <c r="S9" s="25">
         <f t="shared" si="4"/>
-        <v>123.139</v>
+        <v>283.93599999999998</v>
       </c>
       <c r="T9" s="27">
         <f t="shared" si="5"/>
-        <v>-3.8610000000000042</v>
+        <v>16.935999999999979</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52322,7 +52495,7 @@
       </c>
       <c r="D10" s="21">
         <f>'1'!D10+'2'!D10+'3'!D10+'4'!D10+'5'!D10+'6'!D10+'7'!D10+'8'!D10+'9'!D10+'10'!D10+'11'!D10+'12'!D10+'13'!D10+'14'!D10+'15'!D10+'16'!D10+'17'!D10+'18'!D10+'19'!D10+'20'!D10+'21'!D10+'22'!D10+'23'!D10+'24'!D10+'25'!D10+'26'!D10+'27'!D10+'28'!D10+'29'!D10+'30'!D10+'31'!D10</f>
-        <v>6222</v>
+        <v>12444</v>
       </c>
       <c r="E10" s="21">
         <f>'1'!E10+'2'!E10+'3'!E10+'4'!E10+'5'!E10+'6'!E10+'7'!E10+'8'!E10+'9'!E10+'10'!E10+'11'!E10+'12'!E10+'13'!E10+'14'!E10+'15'!E10+'16'!E10+'17'!E10+'18'!E10+'19'!E10+'20'!E10+'21'!E10+'22'!E10+'23'!E10+'24'!E10+'25'!E10+'26'!E10+'27'!E10+'28'!E10+'29'!E10+'30'!E10+'31'!E10</f>
@@ -52338,11 +52511,11 @@
       </c>
       <c r="H10" s="21">
         <f>'1'!H10+'2'!H10+'3'!H10+'4'!H10+'5'!H10+'6'!H10+'7'!H10+'8'!H10+'9'!H10+'10'!H10+'11'!H10+'12'!H10+'13'!H10+'14'!H10+'15'!H10+'16'!H10+'17'!H10+'18'!H10+'19'!H10+'20'!H10+'21'!H10+'22'!H10+'23'!H10+'24'!H10+'25'!H10+'26'!H10+'27'!H10+'28'!H10+'29'!H10+'30'!H10+'31'!H10</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="21">
         <f>'1'!I10+'2'!I10+'3'!I10+'4'!I10+'5'!I10+'6'!I10+'7'!I10+'8'!I10+'9'!I10+'10'!I10+'11'!I10+'12'!I10+'13'!I10+'14'!I10+'15'!I10+'16'!I10+'17'!I10+'18'!I10+'19'!I10+'20'!I10+'21'!I10+'22'!I10+'23'!I10+'24'!I10+'25'!I10+'26'!I10+'27'!I10+'28'!I10+'29'!I10+'30'!I10+'31'!I10</f>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J10" s="21">
         <f>'1'!J10+'2'!J10+'3'!J10+'4'!J10+'5'!J10+'6'!J10+'7'!J10+'8'!J10+'9'!J10+'10'!J10+'11'!J10+'12'!J10+'13'!J10+'14'!J10+'15'!J10+'16'!J10+'17'!J10+'18'!J10+'19'!J10+'20'!J10+'21'!J10+'22'!J10+'23'!J10+'24'!J10+'25'!J10+'26'!J10+'27'!J10+'28'!J10+'29'!J10+'30'!J10+'31'!J10</f>
@@ -52358,32 +52531,32 @@
       </c>
       <c r="M10" s="20">
         <f t="shared" si="0"/>
-        <v>6222</v>
+        <v>13344</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="1"/>
-        <v>6413</v>
+        <v>15827</v>
       </c>
       <c r="O10" s="25">
         <f t="shared" si="2"/>
-        <v>171.10499999999999</v>
+        <v>366.96</v>
       </c>
       <c r="P10" s="26"/>
       <c r="Q10" s="26">
         <f>'1'!Q10+'2'!Q10+'3'!Q10+'4'!Q10+'5'!Q10+'6'!Q10+'7'!Q10+'8'!Q10+'9'!Q10+'10'!Q10+'11'!Q10+'12'!Q10+'13'!Q10+'14'!Q10+'15'!Q10+'16'!Q10+'17'!Q10+'18'!Q10+'19'!Q10+'20'!Q10+'21'!Q10+'22'!Q10+'23'!Q10+'24'!Q10+'25'!Q10+'26'!Q10+'27'!Q10+'28'!Q10+'29'!Q10+'30'!Q10+'31'!Q10</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R10" s="24">
         <f t="shared" si="3"/>
-        <v>6210.8950000000004</v>
+        <v>15401.04</v>
       </c>
       <c r="S10" s="25">
         <f t="shared" si="4"/>
-        <v>59.109000000000002</v>
+        <v>126.768</v>
       </c>
       <c r="T10" s="27">
         <f t="shared" si="5"/>
-        <v>28.109000000000002</v>
+        <v>67.768000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52398,7 +52571,7 @@
       </c>
       <c r="D11" s="21">
         <f>'1'!D11+'2'!D11+'3'!D11+'4'!D11+'5'!D11+'6'!D11+'7'!D11+'8'!D11+'9'!D11+'10'!D11+'11'!D11+'12'!D11+'13'!D11+'14'!D11+'15'!D11+'16'!D11+'17'!D11+'18'!D11+'19'!D11+'20'!D11+'21'!D11+'22'!D11+'23'!D11+'24'!D11+'25'!D11+'26'!D11+'27'!D11+'28'!D11+'29'!D11+'30'!D11+'31'!D11</f>
-        <v>5761</v>
+        <v>11617</v>
       </c>
       <c r="E11" s="21">
         <f>'1'!E11+'2'!E11+'3'!E11+'4'!E11+'5'!E11+'6'!E11+'7'!E11+'8'!E11+'9'!E11+'10'!E11+'11'!E11+'12'!E11+'13'!E11+'14'!E11+'15'!E11+'16'!E11+'17'!E11+'18'!E11+'19'!E11+'20'!E11+'21'!E11+'22'!E11+'23'!E11+'24'!E11+'25'!E11+'26'!E11+'27'!E11+'28'!E11+'29'!E11+'30'!E11+'31'!E11</f>
@@ -52406,7 +52579,7 @@
       </c>
       <c r="F11" s="21">
         <f>'1'!F11+'2'!F11+'3'!F11+'4'!F11+'5'!F11+'6'!F11+'7'!F11+'8'!F11+'9'!F11+'10'!F11+'11'!F11+'12'!F11+'13'!F11+'14'!F11+'15'!F11+'16'!F11+'17'!F11+'18'!F11+'19'!F11+'20'!F11+'21'!F11+'22'!F11+'23'!F11+'24'!F11+'25'!F11+'26'!F11+'27'!F11+'28'!F11+'29'!F11+'30'!F11+'31'!F11</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G11" s="21">
         <f>'1'!G11+'2'!G11+'3'!G11+'4'!G11+'5'!G11+'6'!G11+'7'!G11+'8'!G11+'9'!G11+'10'!G11+'11'!G11+'12'!G11+'13'!G11+'14'!G11+'15'!G11+'16'!G11+'17'!G11+'18'!G11+'19'!G11+'20'!G11+'21'!G11+'22'!G11+'23'!G11+'24'!G11+'25'!G11+'26'!G11+'27'!G11+'28'!G11+'29'!G11+'30'!G11+'31'!G11</f>
@@ -52414,7 +52587,7 @@
       </c>
       <c r="H11" s="21">
         <f>'1'!H11+'2'!H11+'3'!H11+'4'!H11+'5'!H11+'6'!H11+'7'!H11+'8'!H11+'9'!H11+'10'!H11+'11'!H11+'12'!H11+'13'!H11+'14'!H11+'15'!H11+'16'!H11+'17'!H11+'18'!H11+'19'!H11+'20'!H11+'21'!H11+'22'!H11+'23'!H11+'24'!H11+'25'!H11+'26'!H11+'27'!H11+'28'!H11+'29'!H11+'30'!H11+'31'!H11</f>
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="I11" s="21">
         <f>'1'!I11+'2'!I11+'3'!I11+'4'!I11+'5'!I11+'6'!I11+'7'!I11+'8'!I11+'9'!I11+'10'!I11+'11'!I11+'12'!I11+'13'!I11+'14'!I11+'15'!I11+'16'!I11+'17'!I11+'18'!I11+'19'!I11+'20'!I11+'21'!I11+'22'!I11+'23'!I11+'24'!I11+'25'!I11+'26'!I11+'27'!I11+'28'!I11+'29'!I11+'30'!I11+'31'!I11</f>
@@ -52434,32 +52607,32 @@
       </c>
       <c r="M11" s="20">
         <f t="shared" si="0"/>
-        <v>5941</v>
+        <v>13967</v>
       </c>
       <c r="N11" s="24">
         <f t="shared" si="1"/>
-        <v>5941</v>
+        <v>13967</v>
       </c>
       <c r="O11" s="25">
         <f t="shared" si="2"/>
-        <v>163.3775</v>
+        <v>384.09250000000003</v>
       </c>
       <c r="P11" s="26"/>
       <c r="Q11" s="26">
         <f>'1'!Q11+'2'!Q11+'3'!Q11+'4'!Q11+'5'!Q11+'6'!Q11+'7'!Q11+'8'!Q11+'9'!Q11+'10'!Q11+'11'!Q11+'12'!Q11+'13'!Q11+'14'!Q11+'15'!Q11+'16'!Q11+'17'!Q11+'18'!Q11+'19'!Q11+'20'!Q11+'21'!Q11+'22'!Q11+'23'!Q11+'24'!Q11+'25'!Q11+'26'!Q11+'27'!Q11+'28'!Q11+'29'!Q11+'30'!Q11+'31'!Q11</f>
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="R11" s="24">
         <f t="shared" si="3"/>
-        <v>5735.6225000000004</v>
+        <v>13495.907499999999</v>
       </c>
       <c r="S11" s="25">
         <f t="shared" si="4"/>
-        <v>56.439499999999995</v>
+        <v>132.6865</v>
       </c>
       <c r="T11" s="27">
         <f t="shared" si="5"/>
-        <v>14.439499999999995</v>
+        <v>45.686499999999995</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52474,7 +52647,7 @@
       </c>
       <c r="D12" s="21">
         <f>'1'!D12+'2'!D12+'3'!D12+'4'!D12+'5'!D12+'6'!D12+'7'!D12+'8'!D12+'9'!D12+'10'!D12+'11'!D12+'12'!D12+'13'!D12+'14'!D12+'15'!D12+'16'!D12+'17'!D12+'18'!D12+'19'!D12+'20'!D12+'21'!D12+'22'!D12+'23'!D12+'24'!D12+'25'!D12+'26'!D12+'27'!D12+'28'!D12+'29'!D12+'30'!D12+'31'!D12</f>
-        <v>2807</v>
+        <v>9238</v>
       </c>
       <c r="E12" s="21">
         <f>'1'!E12+'2'!E12+'3'!E12+'4'!E12+'5'!E12+'6'!E12+'7'!E12+'8'!E12+'9'!E12+'10'!E12+'11'!E12+'12'!E12+'13'!E12+'14'!E12+'15'!E12+'16'!E12+'17'!E12+'18'!E12+'19'!E12+'20'!E12+'21'!E12+'22'!E12+'23'!E12+'24'!E12+'25'!E12+'26'!E12+'27'!E12+'28'!E12+'29'!E12+'30'!E12+'31'!E12</f>
@@ -52502,7 +52675,7 @@
       </c>
       <c r="K12" s="21">
         <f>'1'!K12+'2'!K12+'3'!K12+'4'!K12+'5'!K12+'6'!K12+'7'!K12+'8'!K12+'9'!K12+'10'!K12+'11'!K12+'12'!K12+'13'!K12+'14'!K12+'15'!K12+'16'!K12+'17'!K12+'18'!K12+'19'!K12+'20'!K12+'21'!K12+'22'!K12+'23'!K12+'24'!K12+'25'!K12+'26'!K12+'27'!K12+'28'!K12+'29'!K12+'30'!K12+'31'!K12</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L12" s="21">
         <f>'1'!L12+'2'!L12+'3'!L12+'4'!L12+'5'!L12+'6'!L12+'7'!L12+'8'!L12+'9'!L12+'10'!L12+'11'!L12+'12'!L12+'13'!L12+'14'!L12+'15'!L12+'16'!L12+'17'!L12+'18'!L12+'19'!L12+'20'!L12+'21'!L12+'22'!L12+'23'!L12+'24'!L12+'25'!L12+'26'!L12+'27'!L12+'28'!L12+'29'!L12+'30'!L12+'31'!L12</f>
@@ -52510,32 +52683,32 @@
       </c>
       <c r="M12" s="20">
         <f t="shared" si="0"/>
-        <v>2807</v>
+        <v>9238</v>
       </c>
       <c r="N12" s="24">
         <f t="shared" si="1"/>
-        <v>2807</v>
+        <v>11058</v>
       </c>
       <c r="O12" s="25">
         <f t="shared" si="2"/>
-        <v>77.192499999999995</v>
+        <v>254.04499999999999</v>
       </c>
       <c r="P12" s="26"/>
       <c r="Q12" s="26">
         <f>'1'!Q12+'2'!Q12+'3'!Q12+'4'!Q12+'5'!Q12+'6'!Q12+'7'!Q12+'8'!Q12+'9'!Q12+'10'!Q12+'11'!Q12+'12'!Q12+'13'!Q12+'14'!Q12+'15'!Q12+'16'!Q12+'17'!Q12+'18'!Q12+'19'!Q12+'20'!Q12+'21'!Q12+'22'!Q12+'23'!Q12+'24'!Q12+'25'!Q12+'26'!Q12+'27'!Q12+'28'!Q12+'29'!Q12+'30'!Q12+'31'!Q12</f>
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="R12" s="24">
         <f t="shared" si="3"/>
-        <v>2700.8074999999999</v>
+        <v>10740.955</v>
       </c>
       <c r="S12" s="25">
         <f t="shared" si="4"/>
-        <v>26.666499999999999</v>
+        <v>87.760999999999996</v>
       </c>
       <c r="T12" s="27">
         <f t="shared" si="5"/>
-        <v>-2.3335000000000008</v>
+        <v>24.760999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52550,7 +52723,7 @@
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
-        <v>3151</v>
+        <v>10001</v>
       </c>
       <c r="E13" s="21">
         <f>'1'!E13+'2'!E13+'3'!E13+'4'!E13+'5'!E13+'6'!E13+'7'!E13+'8'!E13+'9'!E13+'10'!E13+'11'!E13+'12'!E13+'13'!E13+'14'!E13+'15'!E13+'16'!E13+'17'!E13+'18'!E13+'19'!E13+'20'!E13+'21'!E13+'22'!E13+'23'!E13+'24'!E13+'25'!E13+'26'!E13+'27'!E13+'28'!E13+'29'!E13+'30'!E13+'31'!E13</f>
@@ -52586,32 +52759,32 @@
       </c>
       <c r="M13" s="20">
         <f t="shared" si="0"/>
-        <v>5291</v>
+        <v>12141</v>
       </c>
       <c r="N13" s="24">
         <f t="shared" si="1"/>
-        <v>5291</v>
+        <v>12141</v>
       </c>
       <c r="O13" s="25">
         <f t="shared" si="2"/>
-        <v>145.5025</v>
+        <v>333.8775</v>
       </c>
       <c r="P13" s="26"/>
       <c r="Q13" s="26">
         <f>'1'!Q13+'2'!Q13+'3'!Q13+'4'!Q13+'5'!Q13+'6'!Q13+'7'!Q13+'8'!Q13+'9'!Q13+'10'!Q13+'11'!Q13+'12'!Q13+'13'!Q13+'14'!Q13+'15'!Q13+'16'!Q13+'17'!Q13+'18'!Q13+'19'!Q13+'20'!Q13+'21'!Q13+'22'!Q13+'23'!Q13+'24'!Q13+'25'!Q13+'26'!Q13+'27'!Q13+'28'!Q13+'29'!Q13+'30'!Q13+'31'!Q13</f>
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="R13" s="24">
         <f t="shared" si="3"/>
-        <v>5090.4975000000004</v>
+        <v>11697.122499999999</v>
       </c>
       <c r="S13" s="25">
         <f t="shared" si="4"/>
-        <v>50.264499999999998</v>
+        <v>115.3395</v>
       </c>
       <c r="T13" s="27">
         <f t="shared" si="5"/>
-        <v>-4.7355000000000018</v>
+        <v>5.339500000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52626,7 +52799,7 @@
       </c>
       <c r="D14" s="21">
         <f>'1'!D14+'2'!D14+'3'!D14+'4'!D14+'5'!D14+'6'!D14+'7'!D14+'8'!D14+'9'!D14+'10'!D14+'11'!D14+'12'!D14+'13'!D14+'14'!D14+'15'!D14+'16'!D14+'17'!D14+'18'!D14+'19'!D14+'20'!D14+'21'!D14+'22'!D14+'23'!D14+'24'!D14+'25'!D14+'26'!D14+'27'!D14+'28'!D14+'29'!D14+'30'!D14+'31'!D14</f>
-        <v>12648</v>
+        <v>23761</v>
       </c>
       <c r="E14" s="21">
         <f>'1'!E14+'2'!E14+'3'!E14+'4'!E14+'5'!E14+'6'!E14+'7'!E14+'8'!E14+'9'!E14+'10'!E14+'11'!E14+'12'!E14+'13'!E14+'14'!E14+'15'!E14+'16'!E14+'17'!E14+'18'!E14+'19'!E14+'20'!E14+'21'!E14+'22'!E14+'23'!E14+'24'!E14+'25'!E14+'26'!E14+'27'!E14+'28'!E14+'29'!E14+'30'!E14+'31'!E14</f>
@@ -52642,15 +52815,15 @@
       </c>
       <c r="H14" s="21">
         <f>'1'!H14+'2'!H14+'3'!H14+'4'!H14+'5'!H14+'6'!H14+'7'!H14+'8'!H14+'9'!H14+'10'!H14+'11'!H14+'12'!H14+'13'!H14+'14'!H14+'15'!H14+'16'!H14+'17'!H14+'18'!H14+'19'!H14+'20'!H14+'21'!H14+'22'!H14+'23'!H14+'24'!H14+'25'!H14+'26'!H14+'27'!H14+'28'!H14+'29'!H14+'30'!H14+'31'!H14</f>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I14" s="21">
         <f>'1'!I14+'2'!I14+'3'!I14+'4'!I14+'5'!I14+'6'!I14+'7'!I14+'8'!I14+'9'!I14+'10'!I14+'11'!I14+'12'!I14+'13'!I14+'14'!I14+'15'!I14+'16'!I14+'17'!I14+'18'!I14+'19'!I14+'20'!I14+'21'!I14+'22'!I14+'23'!I14+'24'!I14+'25'!I14+'26'!I14+'27'!I14+'28'!I14+'29'!I14+'30'!I14+'31'!I14</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" s="21">
         <f>'1'!J14+'2'!J14+'3'!J14+'4'!J14+'5'!J14+'6'!J14+'7'!J14+'8'!J14+'9'!J14+'10'!J14+'11'!J14+'12'!J14+'13'!J14+'14'!J14+'15'!J14+'16'!J14+'17'!J14+'18'!J14+'19'!J14+'20'!J14+'21'!J14+'22'!J14+'23'!J14+'24'!J14+'25'!J14+'26'!J14+'27'!J14+'28'!J14+'29'!J14+'30'!J14+'31'!J14</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="21">
         <f>'1'!K14+'2'!K14+'3'!K14+'4'!K14+'5'!K14+'6'!K14+'7'!K14+'8'!K14+'9'!K14+'10'!K14+'11'!K14+'12'!K14+'13'!K14+'14'!K14+'15'!K14+'16'!K14+'17'!K14+'18'!K14+'19'!K14+'20'!K14+'21'!K14+'22'!K14+'23'!K14+'24'!K14+'25'!K14+'26'!K14+'27'!K14+'28'!K14+'29'!K14+'30'!K14+'31'!K14</f>
@@ -52662,32 +52835,32 @@
       </c>
       <c r="M14" s="20">
         <f t="shared" si="0"/>
-        <v>15548</v>
+        <v>27201</v>
       </c>
       <c r="N14" s="24">
         <f t="shared" si="1"/>
-        <v>15548</v>
+        <v>28729</v>
       </c>
       <c r="O14" s="25">
         <f t="shared" si="2"/>
-        <v>427.57</v>
+        <v>748.02750000000003</v>
       </c>
       <c r="P14" s="26"/>
       <c r="Q14" s="26">
         <f>'1'!Q14+'2'!Q14+'3'!Q14+'4'!Q14+'5'!Q14+'6'!Q14+'7'!Q14+'8'!Q14+'9'!Q14+'10'!Q14+'11'!Q14+'12'!Q14+'13'!Q14+'14'!Q14+'15'!Q14+'16'!Q14+'17'!Q14+'18'!Q14+'19'!Q14+'20'!Q14+'21'!Q14+'22'!Q14+'23'!Q14+'24'!Q14+'25'!Q14+'26'!Q14+'27'!Q14+'28'!Q14+'29'!Q14+'30'!Q14+'31'!Q14</f>
-        <v>141</v>
+        <v>272</v>
       </c>
       <c r="R14" s="24">
         <f t="shared" si="3"/>
-        <v>14979.43</v>
+        <v>27708.9725</v>
       </c>
       <c r="S14" s="25">
         <f t="shared" si="4"/>
-        <v>147.70599999999999</v>
+        <v>258.40949999999998</v>
       </c>
       <c r="T14" s="27">
         <f t="shared" si="5"/>
-        <v>6.7059999999999889</v>
+        <v>-13.59050000000002</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52702,15 +52875,15 @@
       </c>
       <c r="D15" s="21">
         <f>'1'!D15+'2'!D15+'3'!D15+'4'!D15+'5'!D15+'6'!D15+'7'!D15+'8'!D15+'9'!D15+'10'!D15+'11'!D15+'12'!D15+'13'!D15+'14'!D15+'15'!D15+'16'!D15+'17'!D15+'18'!D15+'19'!D15+'20'!D15+'21'!D15+'22'!D15+'23'!D15+'24'!D15+'25'!D15+'26'!D15+'27'!D15+'28'!D15+'29'!D15+'30'!D15+'31'!D15</f>
-        <v>15525</v>
+        <v>35306</v>
       </c>
       <c r="E15" s="21">
         <f>'1'!E15+'2'!E15+'3'!E15+'4'!E15+'5'!E15+'6'!E15+'7'!E15+'8'!E15+'9'!E15+'10'!E15+'11'!E15+'12'!E15+'13'!E15+'14'!E15+'15'!E15+'16'!E15+'17'!E15+'18'!E15+'19'!E15+'20'!E15+'21'!E15+'22'!E15+'23'!E15+'24'!E15+'25'!E15+'26'!E15+'27'!E15+'28'!E15+'29'!E15+'30'!E15+'31'!E15</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F15" s="21">
         <f>'1'!F15+'2'!F15+'3'!F15+'4'!F15+'5'!F15+'6'!F15+'7'!F15+'8'!F15+'9'!F15+'10'!F15+'11'!F15+'12'!F15+'13'!F15+'14'!F15+'15'!F15+'16'!F15+'17'!F15+'18'!F15+'19'!F15+'20'!F15+'21'!F15+'22'!F15+'23'!F15+'24'!F15+'25'!F15+'26'!F15+'27'!F15+'28'!F15+'29'!F15+'30'!F15+'31'!F15</f>
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="G15" s="21">
         <f>'1'!G15+'2'!G15+'3'!G15+'4'!G15+'5'!G15+'6'!G15+'7'!G15+'8'!G15+'9'!G15+'10'!G15+'11'!G15+'12'!G15+'13'!G15+'14'!G15+'15'!G15+'16'!G15+'17'!G15+'18'!G15+'19'!G15+'20'!G15+'21'!G15+'22'!G15+'23'!G15+'24'!G15+'25'!G15+'26'!G15+'27'!G15+'28'!G15+'29'!G15+'30'!G15+'31'!G15</f>
@@ -52738,32 +52911,32 @@
       </c>
       <c r="M15" s="20">
         <f t="shared" si="0"/>
-        <v>16665</v>
+        <v>37946</v>
       </c>
       <c r="N15" s="24">
         <f t="shared" si="1"/>
-        <v>16665</v>
+        <v>37946</v>
       </c>
       <c r="O15" s="25">
         <f t="shared" si="2"/>
-        <v>458.28750000000002</v>
+        <v>1043.5150000000001</v>
       </c>
       <c r="P15" s="26"/>
       <c r="Q15" s="26">
         <f>'1'!Q15+'2'!Q15+'3'!Q15+'4'!Q15+'5'!Q15+'6'!Q15+'7'!Q15+'8'!Q15+'9'!Q15+'10'!Q15+'11'!Q15+'12'!Q15+'13'!Q15+'14'!Q15+'15'!Q15+'16'!Q15+'17'!Q15+'18'!Q15+'19'!Q15+'20'!Q15+'21'!Q15+'22'!Q15+'23'!Q15+'24'!Q15+'25'!Q15+'26'!Q15+'27'!Q15+'28'!Q15+'29'!Q15+'30'!Q15+'31'!Q15</f>
-        <v>160</v>
+        <v>330</v>
       </c>
       <c r="R15" s="24">
         <f t="shared" si="3"/>
-        <v>16046.7125</v>
+        <v>36572.485000000001</v>
       </c>
       <c r="S15" s="25">
         <f t="shared" si="4"/>
-        <v>158.3175</v>
+        <v>360.48699999999997</v>
       </c>
       <c r="T15" s="27">
         <f t="shared" si="5"/>
-        <v>-1.6825000000000045</v>
+        <v>30.486999999999966</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52778,7 +52951,7 @@
       </c>
       <c r="D16" s="21">
         <f>'1'!D16+'2'!D16+'3'!D16+'4'!D16+'5'!D16+'6'!D16+'7'!D16+'8'!D16+'9'!D16+'10'!D16+'11'!D16+'12'!D16+'13'!D16+'14'!D16+'15'!D16+'16'!D16+'17'!D16+'18'!D16+'19'!D16+'20'!D16+'21'!D16+'22'!D16+'23'!D16+'24'!D16+'25'!D16+'26'!D16+'27'!D16+'28'!D16+'29'!D16+'30'!D16+'31'!D16</f>
-        <v>6165</v>
+        <v>21700</v>
       </c>
       <c r="E16" s="21">
         <f>'1'!E16+'2'!E16+'3'!E16+'4'!E16+'5'!E16+'6'!E16+'7'!E16+'8'!E16+'9'!E16+'10'!E16+'11'!E16+'12'!E16+'13'!E16+'14'!E16+'15'!E16+'16'!E16+'17'!E16+'18'!E16+'19'!E16+'20'!E16+'21'!E16+'22'!E16+'23'!E16+'24'!E16+'25'!E16+'26'!E16+'27'!E16+'28'!E16+'29'!E16+'30'!E16+'31'!E16</f>
@@ -52794,11 +52967,11 @@
       </c>
       <c r="H16" s="21">
         <f>'1'!H16+'2'!H16+'3'!H16+'4'!H16+'5'!H16+'6'!H16+'7'!H16+'8'!H16+'9'!H16+'10'!H16+'11'!H16+'12'!H16+'13'!H16+'14'!H16+'15'!H16+'16'!H16+'17'!H16+'18'!H16+'19'!H16+'20'!H16+'21'!H16+'22'!H16+'23'!H16+'24'!H16+'25'!H16+'26'!H16+'27'!H16+'28'!H16+'29'!H16+'30'!H16+'31'!H16</f>
-        <v>40</v>
+        <v>140</v>
       </c>
       <c r="I16" s="21">
         <f>'1'!I16+'2'!I16+'3'!I16+'4'!I16+'5'!I16+'6'!I16+'7'!I16+'8'!I16+'9'!I16+'10'!I16+'11'!I16+'12'!I16+'13'!I16+'14'!I16+'15'!I16+'16'!I16+'17'!I16+'18'!I16+'19'!I16+'20'!I16+'21'!I16+'22'!I16+'23'!I16+'24'!I16+'25'!I16+'26'!I16+'27'!I16+'28'!I16+'29'!I16+'30'!I16+'31'!I16</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J16" s="21">
         <f>'1'!J16+'2'!J16+'3'!J16+'4'!J16+'5'!J16+'6'!J16+'7'!J16+'8'!J16+'9'!J16+'10'!J16+'11'!J16+'12'!J16+'13'!J16+'14'!J16+'15'!J16+'16'!J16+'17'!J16+'18'!J16+'19'!J16+'20'!J16+'21'!J16+'22'!J16+'23'!J16+'24'!J16+'25'!J16+'26'!J16+'27'!J16+'28'!J16+'29'!J16+'30'!J16+'31'!J16</f>
@@ -52806,7 +52979,7 @@
       </c>
       <c r="K16" s="21">
         <f>'1'!K16+'2'!K16+'3'!K16+'4'!K16+'5'!K16+'6'!K16+'7'!K16+'8'!K16+'9'!K16+'10'!K16+'11'!K16+'12'!K16+'13'!K16+'14'!K16+'15'!K16+'16'!K16+'17'!K16+'18'!K16+'19'!K16+'20'!K16+'21'!K16+'22'!K16+'23'!K16+'24'!K16+'25'!K16+'26'!K16+'27'!K16+'28'!K16+'29'!K16+'30'!K16+'31'!K16</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="21">
         <f>'1'!L16+'2'!L16+'3'!L16+'4'!L16+'5'!L16+'6'!L16+'7'!L16+'8'!L16+'9'!L16+'10'!L16+'11'!L16+'12'!L16+'13'!L16+'14'!L16+'15'!L16+'16'!L16+'17'!L16+'18'!L16+'19'!L16+'20'!L16+'21'!L16+'22'!L16+'23'!L16+'24'!L16+'25'!L16+'26'!L16+'27'!L16+'28'!L16+'29'!L16+'30'!L16+'31'!L16</f>
@@ -52814,32 +52987,32 @@
       </c>
       <c r="M16" s="20">
         <f t="shared" si="0"/>
-        <v>6525</v>
+        <v>22960</v>
       </c>
       <c r="N16" s="24">
         <f t="shared" si="1"/>
-        <v>6525</v>
+        <v>28645</v>
       </c>
       <c r="O16" s="25">
         <f t="shared" si="2"/>
-        <v>179.4375</v>
+        <v>631.4</v>
       </c>
       <c r="P16" s="26"/>
       <c r="Q16" s="26">
         <f>'1'!Q16+'2'!Q16+'3'!Q16+'4'!Q16+'5'!Q16+'6'!Q16+'7'!Q16+'8'!Q16+'9'!Q16+'10'!Q16+'11'!Q16+'12'!Q16+'13'!Q16+'14'!Q16+'15'!Q16+'16'!Q16+'17'!Q16+'18'!Q16+'19'!Q16+'20'!Q16+'21'!Q16+'22'!Q16+'23'!Q16+'24'!Q16+'25'!Q16+'26'!Q16+'27'!Q16+'28'!Q16+'29'!Q16+'30'!Q16+'31'!Q16</f>
-        <v>105</v>
+        <v>223</v>
       </c>
       <c r="R16" s="24">
         <f t="shared" si="3"/>
-        <v>6240.5625</v>
+        <v>27790.6</v>
       </c>
       <c r="S16" s="25">
         <f t="shared" si="4"/>
-        <v>61.987499999999997</v>
+        <v>218.12</v>
       </c>
       <c r="T16" s="27">
         <f t="shared" si="5"/>
-        <v>-43.012500000000003</v>
+        <v>-4.8799999999999955</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52854,15 +53027,15 @@
       </c>
       <c r="D17" s="21">
         <f>'1'!D17+'2'!D17+'3'!D17+'4'!D17+'5'!D17+'6'!D17+'7'!D17+'8'!D17+'9'!D17+'10'!D17+'11'!D17+'12'!D17+'13'!D17+'14'!D17+'15'!D17+'16'!D17+'17'!D17+'18'!D17+'19'!D17+'20'!D17+'21'!D17+'22'!D17+'23'!D17+'24'!D17+'25'!D17+'26'!D17+'27'!D17+'28'!D17+'29'!D17+'30'!D17+'31'!D17</f>
-        <v>6984</v>
+        <v>16779</v>
       </c>
       <c r="E17" s="21">
         <f>'1'!E17+'2'!E17+'3'!E17+'4'!E17+'5'!E17+'6'!E17+'7'!E17+'8'!E17+'9'!E17+'10'!E17+'11'!E17+'12'!E17+'13'!E17+'14'!E17+'15'!E17+'16'!E17+'17'!E17+'18'!E17+'19'!E17+'20'!E17+'21'!E17+'22'!E17+'23'!E17+'24'!E17+'25'!E17+'26'!E17+'27'!E17+'28'!E17+'29'!E17+'30'!E17+'31'!E17</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F17" s="21">
         <f>'1'!F17+'2'!F17+'3'!F17+'4'!F17+'5'!F17+'6'!F17+'7'!F17+'8'!F17+'9'!F17+'10'!F17+'11'!F17+'12'!F17+'13'!F17+'14'!F17+'15'!F17+'16'!F17+'17'!F17+'18'!F17+'19'!F17+'20'!F17+'21'!F17+'22'!F17+'23'!F17+'24'!F17+'25'!F17+'26'!F17+'27'!F17+'28'!F17+'29'!F17+'30'!F17+'31'!F17</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G17" s="21">
         <f>'1'!G17+'2'!G17+'3'!G17+'4'!G17+'5'!G17+'6'!G17+'7'!G17+'8'!G17+'9'!G17+'10'!G17+'11'!G17+'12'!G17+'13'!G17+'14'!G17+'15'!G17+'16'!G17+'17'!G17+'18'!G17+'19'!G17+'20'!G17+'21'!G17+'22'!G17+'23'!G17+'24'!G17+'25'!G17+'26'!G17+'27'!G17+'28'!G17+'29'!G17+'30'!G17+'31'!G17</f>
@@ -52870,11 +53043,11 @@
       </c>
       <c r="H17" s="21">
         <f>'1'!H17+'2'!H17+'3'!H17+'4'!H17+'5'!H17+'6'!H17+'7'!H17+'8'!H17+'9'!H17+'10'!H17+'11'!H17+'12'!H17+'13'!H17+'14'!H17+'15'!H17+'16'!H17+'17'!H17+'18'!H17+'19'!H17+'20'!H17+'21'!H17+'22'!H17+'23'!H17+'24'!H17+'25'!H17+'26'!H17+'27'!H17+'28'!H17+'29'!H17+'30'!H17+'31'!H17</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I17" s="21">
         <f>'1'!I17+'2'!I17+'3'!I17+'4'!I17+'5'!I17+'6'!I17+'7'!I17+'8'!I17+'9'!I17+'10'!I17+'11'!I17+'12'!I17+'13'!I17+'14'!I17+'15'!I17+'16'!I17+'17'!I17+'18'!I17+'19'!I17+'20'!I17+'21'!I17+'22'!I17+'23'!I17+'24'!I17+'25'!I17+'26'!I17+'27'!I17+'28'!I17+'29'!I17+'30'!I17+'31'!I17</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J17" s="21">
         <f>'1'!J17+'2'!J17+'3'!J17+'4'!J17+'5'!J17+'6'!J17+'7'!J17+'8'!J17+'9'!J17+'10'!J17+'11'!J17+'12'!J17+'13'!J17+'14'!J17+'15'!J17+'16'!J17+'17'!J17+'18'!J17+'19'!J17+'20'!J17+'21'!J17+'22'!J17+'23'!J17+'24'!J17+'25'!J17+'26'!J17+'27'!J17+'28'!J17+'29'!J17+'30'!J17+'31'!J17</f>
@@ -52882,7 +53055,7 @@
       </c>
       <c r="K17" s="21">
         <f>'1'!K17+'2'!K17+'3'!K17+'4'!K17+'5'!K17+'6'!K17+'7'!K17+'8'!K17+'9'!K17+'10'!K17+'11'!K17+'12'!K17+'13'!K17+'14'!K17+'15'!K17+'16'!K17+'17'!K17+'18'!K17+'19'!K17+'20'!K17+'21'!K17+'22'!K17+'23'!K17+'24'!K17+'25'!K17+'26'!K17+'27'!K17+'28'!K17+'29'!K17+'30'!K17+'31'!K17</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L17" s="21">
         <f>'1'!L17+'2'!L17+'3'!L17+'4'!L17+'5'!L17+'6'!L17+'7'!L17+'8'!L17+'9'!L17+'10'!L17+'11'!L17+'12'!L17+'13'!L17+'14'!L17+'15'!L17+'16'!L17+'17'!L17+'18'!L17+'19'!L17+'20'!L17+'21'!L17+'22'!L17+'23'!L17+'24'!L17+'25'!L17+'26'!L17+'27'!L17+'28'!L17+'29'!L17+'30'!L17+'31'!L17</f>
@@ -52890,32 +53063,32 @@
       </c>
       <c r="M17" s="20">
         <f t="shared" si="0"/>
-        <v>7434</v>
+        <v>18579</v>
       </c>
       <c r="N17" s="24">
         <f t="shared" si="1"/>
-        <v>7434</v>
+        <v>25174</v>
       </c>
       <c r="O17" s="25">
         <f t="shared" si="2"/>
-        <v>204.435</v>
+        <v>510.92250000000001</v>
       </c>
       <c r="P17" s="26"/>
       <c r="Q17" s="26">
         <f>'1'!Q17+'2'!Q17+'3'!Q17+'4'!Q17+'5'!Q17+'6'!Q17+'7'!Q17+'8'!Q17+'9'!Q17+'10'!Q17+'11'!Q17+'12'!Q17+'13'!Q17+'14'!Q17+'15'!Q17+'16'!Q17+'17'!Q17+'18'!Q17+'19'!Q17+'20'!Q17+'21'!Q17+'22'!Q17+'23'!Q17+'24'!Q17+'25'!Q17+'26'!Q17+'27'!Q17+'28'!Q17+'29'!Q17+'30'!Q17+'31'!Q17</f>
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="R17" s="24">
         <f t="shared" si="3"/>
-        <v>7170.5649999999996</v>
+        <v>24504.077499999999</v>
       </c>
       <c r="S17" s="25">
         <f t="shared" si="4"/>
-        <v>70.623000000000005</v>
+        <v>176.50049999999999</v>
       </c>
       <c r="T17" s="27">
         <f t="shared" si="5"/>
-        <v>11.623000000000005</v>
+        <v>17.500499999999988</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -52930,15 +53103,15 @@
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
-        <v>14291</v>
+        <v>27556</v>
       </c>
       <c r="E18" s="21">
         <f>'1'!E18+'2'!E18+'3'!E18+'4'!E18+'5'!E18+'6'!E18+'7'!E18+'8'!E18+'9'!E18+'10'!E18+'11'!E18+'12'!E18+'13'!E18+'14'!E18+'15'!E18+'16'!E18+'17'!E18+'18'!E18+'19'!E18+'20'!E18+'21'!E18+'22'!E18+'23'!E18+'24'!E18+'25'!E18+'26'!E18+'27'!E18+'28'!E18+'29'!E18+'30'!E18+'31'!E18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F18" s="21">
         <f>'1'!F18+'2'!F18+'3'!F18+'4'!F18+'5'!F18+'6'!F18+'7'!F18+'8'!F18+'9'!F18+'10'!F18+'11'!F18+'12'!F18+'13'!F18+'14'!F18+'15'!F18+'16'!F18+'17'!F18+'18'!F18+'19'!F18+'20'!F18+'21'!F18+'22'!F18+'23'!F18+'24'!F18+'25'!F18+'26'!F18+'27'!F18+'28'!F18+'29'!F18+'30'!F18+'31'!F18</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G18" s="21">
         <f>'1'!G18+'2'!G18+'3'!G18+'4'!G18+'5'!G18+'6'!G18+'7'!G18+'8'!G18+'9'!G18+'10'!G18+'11'!G18+'12'!G18+'13'!G18+'14'!G18+'15'!G18+'16'!G18+'17'!G18+'18'!G18+'19'!G18+'20'!G18+'21'!G18+'22'!G18+'23'!G18+'24'!G18+'25'!G18+'26'!G18+'27'!G18+'28'!G18+'29'!G18+'30'!G18+'31'!G18</f>
@@ -52946,11 +53119,11 @@
       </c>
       <c r="H18" s="21">
         <f>'1'!H18+'2'!H18+'3'!H18+'4'!H18+'5'!H18+'6'!H18+'7'!H18+'8'!H18+'9'!H18+'10'!H18+'11'!H18+'12'!H18+'13'!H18+'14'!H18+'15'!H18+'16'!H18+'17'!H18+'18'!H18+'19'!H18+'20'!H18+'21'!H18+'22'!H18+'23'!H18+'24'!H18+'25'!H18+'26'!H18+'27'!H18+'28'!H18+'29'!H18+'30'!H18+'31'!H18</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I18" s="21">
         <f>'1'!I18+'2'!I18+'3'!I18+'4'!I18+'5'!I18+'6'!I18+'7'!I18+'8'!I18+'9'!I18+'10'!I18+'11'!I18+'12'!I18+'13'!I18+'14'!I18+'15'!I18+'16'!I18+'17'!I18+'18'!I18+'19'!I18+'20'!I18+'21'!I18+'22'!I18+'23'!I18+'24'!I18+'25'!I18+'26'!I18+'27'!I18+'28'!I18+'29'!I18+'30'!I18+'31'!I18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J18" s="21">
         <f>'1'!J18+'2'!J18+'3'!J18+'4'!J18+'5'!J18+'6'!J18+'7'!J18+'8'!J18+'9'!J18+'10'!J18+'11'!J18+'12'!J18+'13'!J18+'14'!J18+'15'!J18+'16'!J18+'17'!J18+'18'!J18+'19'!J18+'20'!J18+'21'!J18+'22'!J18+'23'!J18+'24'!J18+'25'!J18+'26'!J18+'27'!J18+'28'!J18+'29'!J18+'30'!J18+'31'!J18</f>
@@ -52958,7 +53131,7 @@
       </c>
       <c r="K18" s="21">
         <f>'1'!K18+'2'!K18+'3'!K18+'4'!K18+'5'!K18+'6'!K18+'7'!K18+'8'!K18+'9'!K18+'10'!K18+'11'!K18+'12'!K18+'13'!K18+'14'!K18+'15'!K18+'16'!K18+'17'!K18+'18'!K18+'19'!K18+'20'!K18+'21'!K18+'22'!K18+'23'!K18+'24'!K18+'25'!K18+'26'!K18+'27'!K18+'28'!K18+'29'!K18+'30'!K18+'31'!K18</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L18" s="21">
         <f>'1'!L18+'2'!L18+'3'!L18+'4'!L18+'5'!L18+'6'!L18+'7'!L18+'8'!L18+'9'!L18+'10'!L18+'11'!L18+'12'!L18+'13'!L18+'14'!L18+'15'!L18+'16'!L18+'17'!L18+'18'!L18+'19'!L18+'20'!L18+'21'!L18+'22'!L18+'23'!L18+'24'!L18+'25'!L18+'26'!L18+'27'!L18+'28'!L18+'29'!L18+'30'!L18+'31'!L18</f>
@@ -52966,15 +53139,15 @@
       </c>
       <c r="M18" s="20">
         <f t="shared" si="0"/>
-        <v>14291</v>
+        <v>28506</v>
       </c>
       <c r="N18" s="24">
         <f t="shared" si="1"/>
-        <v>14291</v>
+        <v>32236</v>
       </c>
       <c r="O18" s="25">
         <f t="shared" si="2"/>
-        <v>393.0025</v>
+        <v>783.91499999999996</v>
       </c>
       <c r="P18" s="26"/>
       <c r="Q18" s="26">
@@ -52983,15 +53156,15 @@
       </c>
       <c r="R18" s="24">
         <f t="shared" si="3"/>
-        <v>13797.997499999999</v>
+        <v>31352.084999999999</v>
       </c>
       <c r="S18" s="25">
         <f t="shared" si="4"/>
-        <v>135.7645</v>
+        <v>270.80700000000002</v>
       </c>
       <c r="T18" s="27">
         <f t="shared" si="5"/>
-        <v>35.764499999999998</v>
+        <v>170.80700000000002</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53006,11 +53179,11 @@
       </c>
       <c r="D19" s="21">
         <f>'1'!D19+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
-        <v>12001</v>
+        <v>25019</v>
       </c>
       <c r="E19" s="21">
         <f>'1'!E19+'2'!E19+'3'!E19+'4'!E19+'5'!E19+'6'!E19+'7'!E19+'8'!E19+'9'!E19+'10'!E19+'11'!E19+'12'!E19+'13'!E19+'14'!E19+'15'!E19+'16'!E19+'17'!E19+'18'!E19+'19'!E19+'20'!E19+'21'!E19+'22'!E19+'23'!E19+'24'!E19+'25'!E19+'26'!E19+'27'!E19+'28'!E19+'29'!E19+'30'!E19+'31'!E19</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F19" s="21">
         <f>'1'!F19+'2'!F19+'3'!F19+'4'!F19+'5'!F19+'6'!F19+'7'!F19+'8'!F19+'9'!F19+'10'!F19+'11'!F19+'12'!F19+'13'!F19+'14'!F19+'15'!F19+'16'!F19+'17'!F19+'18'!F19+'19'!F19+'20'!F19+'21'!F19+'22'!F19+'23'!F19+'24'!F19+'25'!F19+'26'!F19+'27'!F19+'28'!F19+'29'!F19+'30'!F19+'31'!F19</f>
@@ -53022,15 +53195,15 @@
       </c>
       <c r="H19" s="21">
         <f>'1'!H19+'2'!H19+'3'!H19+'4'!H19+'5'!H19+'6'!H19+'7'!H19+'8'!H19+'9'!H19+'10'!H19+'11'!H19+'12'!H19+'13'!H19+'14'!H19+'15'!H19+'16'!H19+'17'!H19+'18'!H19+'19'!H19+'20'!H19+'21'!H19+'22'!H19+'23'!H19+'24'!H19+'25'!H19+'26'!H19+'27'!H19+'28'!H19+'29'!H19+'30'!H19+'31'!H19</f>
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="I19" s="21">
         <f>'1'!I19+'2'!I19+'3'!I19+'4'!I19+'5'!I19+'6'!I19+'7'!I19+'8'!I19+'9'!I19+'10'!I19+'11'!I19+'12'!I19+'13'!I19+'14'!I19+'15'!I19+'16'!I19+'17'!I19+'18'!I19+'19'!I19+'20'!I19+'21'!I19+'22'!I19+'23'!I19+'24'!I19+'25'!I19+'26'!I19+'27'!I19+'28'!I19+'29'!I19+'30'!I19+'31'!I19</f>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J19" s="21">
         <f>'1'!J19+'2'!J19+'3'!J19+'4'!J19+'5'!J19+'6'!J19+'7'!J19+'8'!J19+'9'!J19+'10'!J19+'11'!J19+'12'!J19+'13'!J19+'14'!J19+'15'!J19+'16'!J19+'17'!J19+'18'!J19+'19'!J19+'20'!J19+'21'!J19+'22'!J19+'23'!J19+'24'!J19+'25'!J19+'26'!J19+'27'!J19+'28'!J19+'29'!J19+'30'!J19+'31'!J19</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K19" s="21">
         <f>'1'!K19+'2'!K19+'3'!K19+'4'!K19+'5'!K19+'6'!K19+'7'!K19+'8'!K19+'9'!K19+'10'!K19+'11'!K19+'12'!K19+'13'!K19+'14'!K19+'15'!K19+'16'!K19+'17'!K19+'18'!K19+'19'!K19+'20'!K19+'21'!K19+'22'!K19+'23'!K19+'24'!K19+'25'!K19+'26'!K19+'27'!K19+'28'!K19+'29'!K19+'30'!K19+'31'!K19</f>
@@ -53042,32 +53215,32 @@
       </c>
       <c r="M19" s="20">
         <f t="shared" si="0"/>
-        <v>13501</v>
+        <v>27659</v>
       </c>
       <c r="N19" s="24">
         <f t="shared" si="1"/>
-        <v>14647</v>
+        <v>31670</v>
       </c>
       <c r="O19" s="25">
         <f t="shared" si="2"/>
-        <v>371.27749999999997</v>
+        <v>760.62250000000006</v>
       </c>
       <c r="P19" s="26"/>
       <c r="Q19" s="26">
         <f>'1'!Q19+'2'!Q19+'3'!Q19+'4'!Q19+'5'!Q19+'6'!Q19+'7'!Q19+'8'!Q19+'9'!Q19+'10'!Q19+'11'!Q19+'12'!Q19+'13'!Q19+'14'!Q19+'15'!Q19+'16'!Q19+'17'!Q19+'18'!Q19+'19'!Q19+'20'!Q19+'21'!Q19+'22'!Q19+'23'!Q19+'24'!Q19+'25'!Q19+'26'!Q19+'27'!Q19+'28'!Q19+'29'!Q19+'30'!Q19+'31'!Q19</f>
-        <v>170</v>
+        <v>340</v>
       </c>
       <c r="R19" s="24">
         <f t="shared" si="3"/>
-        <v>14105.7225</v>
+        <v>30569.377499999999</v>
       </c>
       <c r="S19" s="25">
         <f t="shared" si="4"/>
-        <v>128.2595</v>
+        <v>262.76049999999998</v>
       </c>
       <c r="T19" s="27">
         <f t="shared" si="5"/>
-        <v>-41.740499999999997</v>
+        <v>-77.239500000000021</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53082,7 +53255,7 @@
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
-        <v>1903</v>
+        <v>2212</v>
       </c>
       <c r="E20" s="21">
         <f>'1'!E20+'2'!E20+'3'!E20+'4'!E20+'5'!E20+'6'!E20+'7'!E20+'8'!E20+'9'!E20+'10'!E20+'11'!E20+'12'!E20+'13'!E20+'14'!E20+'15'!E20+'16'!E20+'17'!E20+'18'!E20+'19'!E20+'20'!E20+'21'!E20+'22'!E20+'23'!E20+'24'!E20+'25'!E20+'26'!E20+'27'!E20+'28'!E20+'29'!E20+'30'!E20+'31'!E20</f>
@@ -53118,15 +53291,15 @@
       </c>
       <c r="M20" s="20">
         <f t="shared" si="0"/>
-        <v>4903</v>
+        <v>5212</v>
       </c>
       <c r="N20" s="24">
         <f t="shared" si="1"/>
-        <v>4903</v>
+        <v>5212</v>
       </c>
       <c r="O20" s="25">
         <f t="shared" si="2"/>
-        <v>134.83250000000001</v>
+        <v>143.33000000000001</v>
       </c>
       <c r="P20" s="26"/>
       <c r="Q20" s="26">
@@ -53135,15 +53308,15 @@
       </c>
       <c r="R20" s="24">
         <f t="shared" si="3"/>
-        <v>4648.1674999999996</v>
+        <v>4948.67</v>
       </c>
       <c r="S20" s="25">
         <f t="shared" si="4"/>
-        <v>46.578499999999998</v>
+        <v>49.513999999999996</v>
       </c>
       <c r="T20" s="27">
         <f t="shared" si="5"/>
-        <v>-73.421500000000009</v>
+        <v>-70.486000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53158,7 +53331,7 @@
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="E21" s="21">
         <f>'1'!E21+'2'!E21+'3'!E21+'4'!E21+'5'!E21+'6'!E21+'7'!E21+'8'!E21+'9'!E21+'10'!E21+'11'!E21+'12'!E21+'13'!E21+'14'!E21+'15'!E21+'16'!E21+'17'!E21+'18'!E21+'19'!E21+'20'!E21+'21'!E21+'22'!E21+'23'!E21+'24'!E21+'25'!E21+'26'!E21+'27'!E21+'28'!E21+'29'!E21+'30'!E21+'31'!E21</f>
@@ -53194,32 +53367,32 @@
       </c>
       <c r="M21" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="N21" s="24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7505</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>206.38749999999999</v>
       </c>
       <c r="P21" s="26"/>
       <c r="Q21" s="26">
         <f>'1'!Q21+'2'!Q21+'3'!Q21+'4'!Q21+'5'!Q21+'6'!Q21+'7'!Q21+'8'!Q21+'9'!Q21+'10'!Q21+'11'!Q21+'12'!Q21+'13'!Q21+'14'!Q21+'15'!Q21+'16'!Q21+'17'!Q21+'18'!Q21+'19'!Q21+'20'!Q21+'21'!Q21+'22'!Q21+'23'!Q21+'24'!Q21+'25'!Q21+'26'!Q21+'27'!Q21+'28'!Q21+'29'!Q21+'30'!Q21+'31'!Q21</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="R21" s="24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7200.6125000000002</v>
       </c>
       <c r="S21" s="25">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>71.297499999999999</v>
       </c>
       <c r="T21" s="27">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-26.702500000000001</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53234,15 +53407,15 @@
       </c>
       <c r="D22" s="21">
         <f>'1'!D22+'2'!D22+'3'!D22+'4'!D22+'5'!D22+'6'!D22+'7'!D22+'8'!D22+'9'!D22+'10'!D22+'11'!D22+'12'!D22+'13'!D22+'14'!D22+'15'!D22+'16'!D22+'17'!D22+'18'!D22+'19'!D22+'20'!D22+'21'!D22+'22'!D22+'23'!D22+'24'!D22+'25'!D22+'26'!D22+'27'!D22+'28'!D22+'29'!D22+'30'!D22+'31'!D22</f>
-        <v>13161</v>
+        <v>24971</v>
       </c>
       <c r="E22" s="21">
         <f>'1'!E22+'2'!E22+'3'!E22+'4'!E22+'5'!E22+'6'!E22+'7'!E22+'8'!E22+'9'!E22+'10'!E22+'11'!E22+'12'!E22+'13'!E22+'14'!E22+'15'!E22+'16'!E22+'17'!E22+'18'!E22+'19'!E22+'20'!E22+'21'!E22+'22'!E22+'23'!E22+'24'!E22+'25'!E22+'26'!E22+'27'!E22+'28'!E22+'29'!E22+'30'!E22+'31'!E22</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F22" s="21">
         <f>'1'!F22+'2'!F22+'3'!F22+'4'!F22+'5'!F22+'6'!F22+'7'!F22+'8'!F22+'9'!F22+'10'!F22+'11'!F22+'12'!F22+'13'!F22+'14'!F22+'15'!F22+'16'!F22+'17'!F22+'18'!F22+'19'!F22+'20'!F22+'21'!F22+'22'!F22+'23'!F22+'24'!F22+'25'!F22+'26'!F22+'27'!F22+'28'!F22+'29'!F22+'30'!F22+'31'!F22</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="G22" s="21">
         <f>'1'!G22+'2'!G22+'3'!G22+'4'!G22+'5'!G22+'6'!G22+'7'!G22+'8'!G22+'9'!G22+'10'!G22+'11'!G22+'12'!G22+'13'!G22+'14'!G22+'15'!G22+'16'!G22+'17'!G22+'18'!G22+'19'!G22+'20'!G22+'21'!G22+'22'!G22+'23'!G22+'24'!G22+'25'!G22+'26'!G22+'27'!G22+'28'!G22+'29'!G22+'30'!G22+'31'!G22</f>
@@ -53254,7 +53427,7 @@
       </c>
       <c r="I22" s="21">
         <f>'1'!I22+'2'!I22+'3'!I22+'4'!I22+'5'!I22+'6'!I22+'7'!I22+'8'!I22+'9'!I22+'10'!I22+'11'!I22+'12'!I22+'13'!I22+'14'!I22+'15'!I22+'16'!I22+'17'!I22+'18'!I22+'19'!I22+'20'!I22+'21'!I22+'22'!I22+'23'!I22+'24'!I22+'25'!I22+'26'!I22+'27'!I22+'28'!I22+'29'!I22+'30'!I22+'31'!I22</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J22" s="21">
         <f>'1'!J22+'2'!J22+'3'!J22+'4'!J22+'5'!J22+'6'!J22+'7'!J22+'8'!J22+'9'!J22+'10'!J22+'11'!J22+'12'!J22+'13'!J22+'14'!J22+'15'!J22+'16'!J22+'17'!J22+'18'!J22+'19'!J22+'20'!J22+'21'!J22+'22'!J22+'23'!J22+'24'!J22+'25'!J22+'26'!J22+'27'!J22+'28'!J22+'29'!J22+'30'!J22+'31'!J22</f>
@@ -53270,32 +53443,32 @@
       </c>
       <c r="M22" s="20">
         <f t="shared" si="0"/>
-        <v>13161</v>
+        <v>27771</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="1"/>
-        <v>13161</v>
+        <v>33501</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>361.92750000000001</v>
+        <v>763.70249999999999</v>
       </c>
       <c r="P22" s="26"/>
       <c r="Q22" s="26">
         <f>'1'!Q22+'2'!Q22+'3'!Q22+'4'!Q22+'5'!Q22+'6'!Q22+'7'!Q22+'8'!Q22+'9'!Q22+'10'!Q22+'11'!Q22+'12'!Q22+'13'!Q22+'14'!Q22+'15'!Q22+'16'!Q22+'17'!Q22+'18'!Q22+'19'!Q22+'20'!Q22+'21'!Q22+'22'!Q22+'23'!Q22+'24'!Q22+'25'!Q22+'26'!Q22+'27'!Q22+'28'!Q22+'29'!Q22+'30'!Q22+'31'!Q22</f>
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="R22" s="24">
         <f t="shared" si="3"/>
-        <v>12649.0725</v>
+        <v>32487.297500000001</v>
       </c>
       <c r="S22" s="25">
         <f t="shared" si="4"/>
-        <v>125.0295</v>
+        <v>263.8245</v>
       </c>
       <c r="T22" s="27">
         <f t="shared" si="5"/>
-        <v>-24.970500000000001</v>
+        <v>13.8245</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53310,7 +53483,7 @@
       </c>
       <c r="D23" s="21">
         <f>'1'!D23+'2'!D23+'3'!D23+'4'!D23+'5'!D23+'6'!D23+'7'!D23+'8'!D23+'9'!D23+'10'!D23+'11'!D23+'12'!D23+'13'!D23+'14'!D23+'15'!D23+'16'!D23+'17'!D23+'18'!D23+'19'!D23+'20'!D23+'21'!D23+'22'!D23+'23'!D23+'24'!D23+'25'!D23+'26'!D23+'27'!D23+'28'!D23+'29'!D23+'30'!D23+'31'!D23</f>
-        <v>5211</v>
+        <v>12243</v>
       </c>
       <c r="E23" s="21">
         <f>'1'!E23+'2'!E23+'3'!E23+'4'!E23+'5'!E23+'6'!E23+'7'!E23+'8'!E23+'9'!E23+'10'!E23+'11'!E23+'12'!E23+'13'!E23+'14'!E23+'15'!E23+'16'!E23+'17'!E23+'18'!E23+'19'!E23+'20'!E23+'21'!E23+'22'!E23+'23'!E23+'24'!E23+'25'!E23+'26'!E23+'27'!E23+'28'!E23+'29'!E23+'30'!E23+'31'!E23</f>
@@ -53346,32 +53519,32 @@
       </c>
       <c r="M23" s="20">
         <f t="shared" si="0"/>
-        <v>5211</v>
+        <v>12243</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="1"/>
-        <v>8076</v>
+        <v>15108</v>
       </c>
       <c r="O23" s="25">
         <f t="shared" si="2"/>
-        <v>143.30250000000001</v>
+        <v>336.6825</v>
       </c>
       <c r="P23" s="26"/>
       <c r="Q23" s="26">
         <f>'1'!Q23+'2'!Q23+'3'!Q23+'4'!Q23+'5'!Q23+'6'!Q23+'7'!Q23+'8'!Q23+'9'!Q23+'10'!Q23+'11'!Q23+'12'!Q23+'13'!Q23+'14'!Q23+'15'!Q23+'16'!Q23+'17'!Q23+'18'!Q23+'19'!Q23+'20'!Q23+'21'!Q23+'22'!Q23+'23'!Q23+'24'!Q23+'25'!Q23+'26'!Q23+'27'!Q23+'28'!Q23+'29'!Q23+'30'!Q23+'31'!Q23</f>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="3"/>
-        <v>7882.6975000000002</v>
+        <v>14651.317499999999</v>
       </c>
       <c r="S23" s="25">
         <f t="shared" si="4"/>
-        <v>49.5045</v>
+        <v>116.3085</v>
       </c>
       <c r="T23" s="27">
         <f t="shared" si="5"/>
-        <v>-0.49549999999999983</v>
+        <v>-3.6915000000000049</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53386,15 +53559,15 @@
       </c>
       <c r="D24" s="21">
         <f>'1'!D24+'2'!D24+'3'!D24+'4'!D24+'5'!D24+'6'!D24+'7'!D24+'8'!D24+'9'!D24+'10'!D24+'11'!D24+'12'!D24+'13'!D24+'14'!D24+'15'!D24+'16'!D24+'17'!D24+'18'!D24+'19'!D24+'20'!D24+'21'!D24+'22'!D24+'23'!D24+'24'!D24+'25'!D24+'26'!D24+'27'!D24+'28'!D24+'29'!D24+'30'!D24+'31'!D24</f>
-        <v>14522</v>
+        <v>25641</v>
       </c>
       <c r="E24" s="21">
         <f>'1'!E24+'2'!E24+'3'!E24+'4'!E24+'5'!E24+'6'!E24+'7'!E24+'8'!E24+'9'!E24+'10'!E24+'11'!E24+'12'!E24+'13'!E24+'14'!E24+'15'!E24+'16'!E24+'17'!E24+'18'!E24+'19'!E24+'20'!E24+'21'!E24+'22'!E24+'23'!E24+'24'!E24+'25'!E24+'26'!E24+'27'!E24+'28'!E24+'29'!E24+'30'!E24+'31'!E24</f>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F24" s="21">
         <f>'1'!F24+'2'!F24+'3'!F24+'4'!F24+'5'!F24+'6'!F24+'7'!F24+'8'!F24+'9'!F24+'10'!F24+'11'!F24+'12'!F24+'13'!F24+'14'!F24+'15'!F24+'16'!F24+'17'!F24+'18'!F24+'19'!F24+'20'!F24+'21'!F24+'22'!F24+'23'!F24+'24'!F24+'25'!F24+'26'!F24+'27'!F24+'28'!F24+'29'!F24+'30'!F24+'31'!F24</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G24" s="21">
         <f>'1'!G24+'2'!G24+'3'!G24+'4'!G24+'5'!G24+'6'!G24+'7'!G24+'8'!G24+'9'!G24+'10'!G24+'11'!G24+'12'!G24+'13'!G24+'14'!G24+'15'!G24+'16'!G24+'17'!G24+'18'!G24+'19'!G24+'20'!G24+'21'!G24+'22'!G24+'23'!G24+'24'!G24+'25'!G24+'26'!G24+'27'!G24+'28'!G24+'29'!G24+'30'!G24+'31'!G24</f>
@@ -53402,11 +53575,11 @@
       </c>
       <c r="H24" s="21">
         <f>'1'!H24+'2'!H24+'3'!H24+'4'!H24+'5'!H24+'6'!H24+'7'!H24+'8'!H24+'9'!H24+'10'!H24+'11'!H24+'12'!H24+'13'!H24+'14'!H24+'15'!H24+'16'!H24+'17'!H24+'18'!H24+'19'!H24+'20'!H24+'21'!H24+'22'!H24+'23'!H24+'24'!H24+'25'!H24+'26'!H24+'27'!H24+'28'!H24+'29'!H24+'30'!H24+'31'!H24</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I24" s="21">
         <f>'1'!I24+'2'!I24+'3'!I24+'4'!I24+'5'!I24+'6'!I24+'7'!I24+'8'!I24+'9'!I24+'10'!I24+'11'!I24+'12'!I24+'13'!I24+'14'!I24+'15'!I24+'16'!I24+'17'!I24+'18'!I24+'19'!I24+'20'!I24+'21'!I24+'22'!I24+'23'!I24+'24'!I24+'25'!I24+'26'!I24+'27'!I24+'28'!I24+'29'!I24+'30'!I24+'31'!I24</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J24" s="21">
         <f>'1'!J24+'2'!J24+'3'!J24+'4'!J24+'5'!J24+'6'!J24+'7'!J24+'8'!J24+'9'!J24+'10'!J24+'11'!J24+'12'!J24+'13'!J24+'14'!J24+'15'!J24+'16'!J24+'17'!J24+'18'!J24+'19'!J24+'20'!J24+'21'!J24+'22'!J24+'23'!J24+'24'!J24+'25'!J24+'26'!J24+'27'!J24+'28'!J24+'29'!J24+'30'!J24+'31'!J24</f>
@@ -53422,32 +53595,32 @@
       </c>
       <c r="M24" s="20">
         <f t="shared" si="0"/>
-        <v>15522</v>
+        <v>28881</v>
       </c>
       <c r="N24" s="24">
         <f t="shared" si="1"/>
-        <v>18769</v>
+        <v>32892</v>
       </c>
       <c r="O24" s="25">
         <f t="shared" si="2"/>
-        <v>426.85500000000002</v>
+        <v>794.22749999999996</v>
       </c>
       <c r="P24" s="26"/>
       <c r="Q24" s="26">
         <f>'1'!Q24+'2'!Q24+'3'!Q24+'4'!Q24+'5'!Q24+'6'!Q24+'7'!Q24+'8'!Q24+'9'!Q24+'10'!Q24+'11'!Q24+'12'!Q24+'13'!Q24+'14'!Q24+'15'!Q24+'16'!Q24+'17'!Q24+'18'!Q24+'19'!Q24+'20'!Q24+'21'!Q24+'22'!Q24+'23'!Q24+'24'!Q24+'25'!Q24+'26'!Q24+'27'!Q24+'28'!Q24+'29'!Q24+'30'!Q24+'31'!Q24</f>
-        <v>122</v>
+        <v>223</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" si="3"/>
-        <v>18220.145</v>
+        <v>31874.772499999999</v>
       </c>
       <c r="S24" s="25">
         <f t="shared" si="4"/>
-        <v>147.459</v>
+        <v>274.36950000000002</v>
       </c>
       <c r="T24" s="27">
         <f t="shared" si="5"/>
-        <v>25.459000000000003</v>
+        <v>51.369500000000016</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53462,7 +53635,7 @@
       </c>
       <c r="D25" s="21">
         <f>'1'!D25+'2'!D25+'3'!D25+'4'!D25+'5'!D25+'6'!D25+'7'!D25+'8'!D25+'9'!D25+'10'!D25+'11'!D25+'12'!D25+'13'!D25+'14'!D25+'15'!D25+'16'!D25+'17'!D25+'18'!D25+'19'!D25+'20'!D25+'21'!D25+'22'!D25+'23'!D25+'24'!D25+'25'!D25+'26'!D25+'27'!D25+'28'!D25+'29'!D25+'30'!D25+'31'!D25</f>
-        <v>12544</v>
+        <v>21902</v>
       </c>
       <c r="E25" s="21">
         <f>'1'!E25+'2'!E25+'3'!E25+'4'!E25+'5'!E25+'6'!E25+'7'!E25+'8'!E25+'9'!E25+'10'!E25+'11'!E25+'12'!E25+'13'!E25+'14'!E25+'15'!E25+'16'!E25+'17'!E25+'18'!E25+'19'!E25+'20'!E25+'21'!E25+'22'!E25+'23'!E25+'24'!E25+'25'!E25+'26'!E25+'27'!E25+'28'!E25+'29'!E25+'30'!E25+'31'!E25</f>
@@ -53498,32 +53671,32 @@
       </c>
       <c r="M25" s="20">
         <f t="shared" si="0"/>
-        <v>12544</v>
+        <v>21902</v>
       </c>
       <c r="N25" s="24">
         <f t="shared" si="1"/>
-        <v>16319</v>
+        <v>25677</v>
       </c>
       <c r="O25" s="25">
         <f t="shared" si="2"/>
-        <v>344.96</v>
+        <v>602.30499999999995</v>
       </c>
       <c r="P25" s="26"/>
       <c r="Q25" s="26">
         <f>'1'!Q25+'2'!Q25+'3'!Q25+'4'!Q25+'5'!Q25+'6'!Q25+'7'!Q25+'8'!Q25+'9'!Q25+'10'!Q25+'11'!Q25+'12'!Q25+'13'!Q25+'14'!Q25+'15'!Q25+'16'!Q25+'17'!Q25+'18'!Q25+'19'!Q25+'20'!Q25+'21'!Q25+'22'!Q25+'23'!Q25+'24'!Q25+'25'!Q25+'26'!Q25+'27'!Q25+'28'!Q25+'29'!Q25+'30'!Q25+'31'!Q25</f>
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="3"/>
-        <v>15874.04</v>
+        <v>24894.695</v>
       </c>
       <c r="S25" s="25">
         <f t="shared" si="4"/>
-        <v>119.16799999999999</v>
+        <v>208.06899999999999</v>
       </c>
       <c r="T25" s="27">
         <f t="shared" si="5"/>
-        <v>19.167999999999992</v>
+        <v>28.068999999999988</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
@@ -53538,7 +53711,7 @@
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
-        <v>2674</v>
+        <v>6327</v>
       </c>
       <c r="E26" s="21">
         <f>'1'!E26+'2'!E26+'3'!E26+'4'!E26+'5'!E26+'6'!E26+'7'!E26+'8'!E26+'9'!E26+'10'!E26+'11'!E26+'12'!E26+'13'!E26+'14'!E26+'15'!E26+'16'!E26+'17'!E26+'18'!E26+'19'!E26+'20'!E26+'21'!E26+'22'!E26+'23'!E26+'24'!E26+'25'!E26+'26'!E26+'27'!E26+'28'!E26+'29'!E26+'30'!E26+'31'!E26</f>
@@ -53554,15 +53727,15 @@
       </c>
       <c r="H26" s="21">
         <f>'1'!H26+'2'!H26+'3'!H26+'4'!H26+'5'!H26+'6'!H26+'7'!H26+'8'!H26+'9'!H26+'10'!H26+'11'!H26+'12'!H26+'13'!H26+'14'!H26+'15'!H26+'16'!H26+'17'!H26+'18'!H26+'19'!H26+'20'!H26+'21'!H26+'22'!H26+'23'!H26+'24'!H26+'25'!H26+'26'!H26+'27'!H26+'28'!H26+'29'!H26+'30'!H26+'31'!H26</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I26" s="21">
         <f>'1'!I26+'2'!I26+'3'!I26+'4'!I26+'5'!I26+'6'!I26+'7'!I26+'8'!I26+'9'!I26+'10'!I26+'11'!I26+'12'!I26+'13'!I26+'14'!I26+'15'!I26+'16'!I26+'17'!I26+'18'!I26+'19'!I26+'20'!I26+'21'!I26+'22'!I26+'23'!I26+'24'!I26+'25'!I26+'26'!I26+'27'!I26+'28'!I26+'29'!I26+'30'!I26+'31'!I26</f>
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J26" s="21">
         <f>'1'!J26+'2'!J26+'3'!J26+'4'!J26+'5'!J26+'6'!J26+'7'!J26+'8'!J26+'9'!J26+'10'!J26+'11'!J26+'12'!J26+'13'!J26+'14'!J26+'15'!J26+'16'!J26+'17'!J26+'18'!J26+'19'!J26+'20'!J26+'21'!J26+'22'!J26+'23'!J26+'24'!J26+'25'!J26+'26'!J26+'27'!J26+'28'!J26+'29'!J26+'30'!J26+'31'!J26</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" s="21">
         <f>'1'!K26+'2'!K26+'3'!K26+'4'!K26+'5'!K26+'6'!K26+'7'!K26+'8'!K26+'9'!K26+'10'!K26+'11'!K26+'12'!K26+'13'!K26+'14'!K26+'15'!K26+'16'!K26+'17'!K26+'18'!K26+'19'!K26+'20'!K26+'21'!K26+'22'!K26+'23'!K26+'24'!K26+'25'!K26+'26'!K26+'27'!K26+'28'!K26+'29'!K26+'30'!K26+'31'!K26</f>
@@ -53574,32 +53747,32 @@
       </c>
       <c r="M26" s="20">
         <f t="shared" si="0"/>
-        <v>2674</v>
+        <v>6867</v>
       </c>
       <c r="N26" s="24">
         <f t="shared" si="1"/>
-        <v>2674</v>
+        <v>12597</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="2"/>
-        <v>73.534999999999997</v>
+        <v>188.8425</v>
       </c>
       <c r="P26" s="26"/>
       <c r="Q26" s="26">
         <f>'1'!Q26+'2'!Q26+'3'!Q26+'4'!Q26+'5'!Q26+'6'!Q26+'7'!Q26+'8'!Q26+'9'!Q26+'10'!Q26+'11'!Q26+'12'!Q26+'13'!Q26+'14'!Q26+'15'!Q26+'16'!Q26+'17'!Q26+'18'!Q26+'19'!Q26+'20'!Q26+'21'!Q26+'22'!Q26+'23'!Q26+'24'!Q26+'25'!Q26+'26'!Q26+'27'!Q26+'28'!Q26+'29'!Q26+'30'!Q26+'31'!Q26</f>
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="R26" s="24">
         <f t="shared" si="3"/>
-        <v>2575.4650000000001</v>
+        <v>12331.157500000001</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="4"/>
-        <v>25.402999999999999</v>
+        <v>65.236499999999992</v>
       </c>
       <c r="T26" s="27">
         <f t="shared" si="5"/>
-        <v>0.40299999999999869</v>
+        <v>-11.763500000000008</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -53614,7 +53787,7 @@
       </c>
       <c r="D27" s="21">
         <f>'1'!D27+'2'!D27+'3'!D27+'4'!D27+'5'!D27+'6'!D27+'7'!D27+'8'!D27+'9'!D27+'10'!D27+'11'!D27+'12'!D27+'13'!D27+'14'!D27+'15'!D27+'16'!D27+'17'!D27+'18'!D27+'19'!D27+'20'!D27+'21'!D27+'22'!D27+'23'!D27+'24'!D27+'25'!D27+'26'!D27+'27'!D27+'28'!D27+'29'!D27+'30'!D27+'31'!D27</f>
-        <v>5963</v>
+        <v>20267</v>
       </c>
       <c r="E27" s="21">
         <f>'1'!E27+'2'!E27+'3'!E27+'4'!E27+'5'!E27+'6'!E27+'7'!E27+'8'!E27+'9'!E27+'10'!E27+'11'!E27+'12'!E27+'13'!E27+'14'!E27+'15'!E27+'16'!E27+'17'!E27+'18'!E27+'19'!E27+'20'!E27+'21'!E27+'22'!E27+'23'!E27+'24'!E27+'25'!E27+'26'!E27+'27'!E27+'28'!E27+'29'!E27+'30'!E27+'31'!E27</f>
@@ -53650,32 +53823,32 @@
       </c>
       <c r="M27" s="31">
         <f t="shared" si="0"/>
-        <v>5963</v>
+        <v>20267</v>
       </c>
       <c r="N27" s="40">
         <f t="shared" si="1"/>
-        <v>5963</v>
+        <v>20267</v>
       </c>
       <c r="O27" s="25">
         <f t="shared" si="2"/>
-        <v>163.98249999999999</v>
+        <v>557.34249999999997</v>
       </c>
       <c r="P27" s="41"/>
       <c r="Q27" s="26">
         <f>'1'!Q27+'2'!Q27+'3'!Q27+'4'!Q27+'5'!Q27+'6'!Q27+'7'!Q27+'8'!Q27+'9'!Q27+'10'!Q27+'11'!Q27+'12'!Q27+'13'!Q27+'14'!Q27+'15'!Q27+'16'!Q27+'17'!Q27+'18'!Q27+'19'!Q27+'20'!Q27+'21'!Q27+'22'!Q27+'23'!Q27+'24'!Q27+'25'!Q27+'26'!Q27+'27'!Q27+'28'!Q27+'29'!Q27+'30'!Q27+'31'!Q27</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R27" s="24">
         <f t="shared" si="3"/>
-        <v>5699.0174999999999</v>
+        <v>19509.657500000001</v>
       </c>
       <c r="S27" s="42">
         <f t="shared" si="4"/>
-        <v>56.648499999999999</v>
+        <v>192.53649999999999</v>
       </c>
       <c r="T27" s="43">
         <f t="shared" si="5"/>
-        <v>-43.351500000000001</v>
+        <v>-7.4635000000000105</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -53686,15 +53859,15 @@
       <c r="C28" s="55"/>
       <c r="D28" s="44">
         <f t="shared" ref="D28:E28" si="6">SUM(D7:D27)</f>
-        <v>168170</v>
+        <v>377929</v>
       </c>
       <c r="E28" s="45">
         <f t="shared" si="6"/>
-        <v>330</v>
+        <v>620</v>
       </c>
       <c r="F28" s="45">
         <f t="shared" ref="F28:T28" si="7">SUM(F7:F27)</f>
-        <v>220</v>
+        <v>600</v>
       </c>
       <c r="G28" s="45">
         <f t="shared" si="7"/>
@@ -53702,19 +53875,19 @@
       </c>
       <c r="H28" s="45">
         <f t="shared" si="7"/>
-        <v>430</v>
+        <v>1590</v>
       </c>
       <c r="I28" s="45">
         <f t="shared" si="7"/>
-        <v>60</v>
+        <v>207</v>
       </c>
       <c r="J28" s="45">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K28" s="45">
         <f t="shared" si="7"/>
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L28" s="45">
         <f t="shared" si="7"/>
@@ -53722,15 +53895,15 @@
       </c>
       <c r="M28" s="45">
         <f t="shared" si="7"/>
-        <v>180840</v>
+        <v>410639</v>
       </c>
       <c r="N28" s="45">
         <f t="shared" si="7"/>
-        <v>193210</v>
+        <v>459748</v>
       </c>
       <c r="O28" s="46">
         <f t="shared" si="7"/>
-        <v>4973.0999999999995</v>
+        <v>11292.572500000002</v>
       </c>
       <c r="P28" s="45">
         <f t="shared" si="7"/>
@@ -53738,19 +53911,19 @@
       </c>
       <c r="Q28" s="45">
         <f t="shared" si="7"/>
-        <v>1805</v>
+        <v>3580</v>
       </c>
       <c r="R28" s="45">
         <f t="shared" si="7"/>
-        <v>186431.9</v>
+        <v>444875.42749999999</v>
       </c>
       <c r="S28" s="45">
         <f t="shared" si="7"/>
-        <v>1717.98</v>
+        <v>3901.0705000000003</v>
       </c>
       <c r="T28" s="47">
         <f t="shared" si="7"/>
-        <v>-87.020000000000067</v>
+        <v>321.07049999999987</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -53761,15 +53934,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -53777,19 +53950,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -54129,15 +54302,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'3'!G29</f>
@@ -54145,19 +54318,19 @@
       </c>
       <c r="H4" s="2">
         <f>'3'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'3'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'3'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'3'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'3'!L29</f>
@@ -55307,15 +55480,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -55323,19 +55496,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -55679,15 +55852,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
@@ -55695,19 +55868,19 @@
       </c>
       <c r="H4" s="2">
         <f>'4'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'4'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'4'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
@@ -56860,15 +57033,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -56876,19 +57049,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -57232,15 +57405,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
@@ -57248,19 +57421,19 @@
       </c>
       <c r="H4" s="2">
         <f>'5'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
@@ -58410,15 +58583,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -58426,19 +58599,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -58782,15 +58955,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
@@ -58798,19 +58971,19 @@
       </c>
       <c r="H4" s="2">
         <f>'6'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
@@ -59960,15 +60133,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -59976,19 +60149,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -60332,15 +60505,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
@@ -60348,19 +60521,19 @@
       </c>
       <c r="H4" s="2">
         <f>'7'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
@@ -61510,15 +61683,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -61526,19 +61699,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
@@ -61882,15 +62055,15 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
@@ -61898,19 +62071,19 @@
       </c>
       <c r="H4" s="2">
         <f>'8'!H29</f>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
@@ -63060,15 +63233,15 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>618472</v>
+        <v>408713</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>5770</v>
+        <v>5480</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10450</v>
+        <v>10070</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
@@ -63076,19 +63249,19 @@
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>28710</v>
+        <v>27550</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1351</v>
+        <v>1204</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>413</v>
+        <v>378</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
